--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>Staff Name</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>1500</t>
   </si>
 </sst>
 </file>
@@ -912,10 +915,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1130,36 @@
       </c>
       <c r="F22" s="19" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>Staff Name</t>
   </si>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>1500</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector and matts and AC cords. LEAVE PORTABLE SCREEN IN ROOM. Key for room in CB 121A storeroom on green fob. Return all equipment to Bethune 201 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -915,10 +927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1172,36 @@
       </c>
       <c r="F26" s="19" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="10">
+        <v>42591</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
   <si>
     <t>Staff Name</t>
   </si>
@@ -927,10 +927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1201,36 @@
         <v>127</v>
       </c>
       <c r="F30" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="10">
+        <v>42594</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>128</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
   <si>
     <t>Staff Name</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Pick up PC and Projector and matts and AC cords. LEAVE PORTABLE SCREEN IN ROOM. Key for room in CB 121A storeroom on green fob. Return all equipment to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector and 2 matts. LEAVE PORTABLE SCREEN IN ROOM. Key for room in CB 121A storeroom on green fob. Return all equipment to Bethune 201 storeroom. IF IT IS POURING RAIN OUTSIDE LEAVE ALL EQUIPMENT LOCKED IN ROOM - Just turn off and I will pick up tomorrow.</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1235,36 @@
       </c>
       <c r="F35" s="19" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="10">
+        <v>42598</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
   <si>
     <t>Staff Name</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>Pick up PC and Projector and 2 matts. LEAVE PORTABLE SCREEN IN ROOM. Key for room in CB 121A storeroom on green fob. Return all equipment to Bethune 201 storeroom. IF IT IS POURING RAIN OUTSIDE LEAVE ALL EQUIPMENT LOCKED IN ROOM - Just turn off and I will pick up tomorrow.</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>Pick up 3 matts, 1 orange AC cord, 1 power bar - and return to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. Client using their own PC and projector - we just gave them matts, power cord and power bar. Stong MDR key in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
@@ -930,10 +939,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1274,36 @@
       </c>
       <c r="F40" s="19" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="10">
+        <v>42601</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1293,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1505,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1516,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1538,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1549,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,7 +1582,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1593,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1604,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1615,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,7 +1623,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,7 +1631,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,7 +1655,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1663,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,7 +1671,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,72 +1687,75 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="C40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -1736,7 +1778,7 @@
     </row>
   </sheetData>
   <sortState ref="C2:C40">
-    <sortCondition ref="C2:C40"/>
+    <sortCondition ref="C40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
   <si>
     <t>Staff Name</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>Pick up 3 matts, 1 orange AC cord, 1 power bar - and return to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. Client using their own PC and projector - we just gave them matts, power cord and power bar. Stong MDR key in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
 </sst>
 </file>
@@ -939,10 +948,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1313,96 @@
       </c>
       <c r="F45" s="19" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>Staff Name</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>107</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
   </si>
 </sst>
 </file>
@@ -948,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1328,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>27</v>
       </c>
@@ -1402,6 +1405,36 @@
         <v>135</v>
       </c>
       <c r="F53" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="10">
+        <v>42606</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1431,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C2:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,244 +1510,241 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,34 +1857,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -1876,8 +1906,8 @@
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C40">
-    <sortCondition ref="C40"/>
+  <sortState ref="A2:C40">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>Staff Name</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>1800</t>
   </si>
 </sst>
 </file>
@@ -951,10 +954,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,6 +1438,116 @@
         <v>115</v>
       </c>
       <c r="F57" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="19" t="s">
         <v>116</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>Staff Name</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>1800</t>
@@ -954,10 +960,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,89 +1471,139 @@
         <v>26</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="10">
-        <v>42607</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="10">
-        <v>42607</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="10">
-        <v>42607</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="10">
-        <v>42607</v>
+        <v>42608</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E66" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F70" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1924,7 +1980,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
   <si>
     <t>Staff Name</t>
   </si>
@@ -442,6 +442,30 @@
   </si>
   <si>
     <t>1800</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Make sure neck mic goes back to drawer.</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>Dining Hall</t>
+  </si>
+  <si>
+    <t>Set up PC and Projector  (from Bethune 201 storeroom) in Stong Dining Hall on wall to the left hand side as you enter room. (Side opposite Orange Snail Pub. Take projector cart with portable screen and PC (Labelled in Bethune Storeroom). Use PC with wireless network card. Client wants PC audio and network. Use black mini to phone cable (in milk carton on projector cart)  for sound for PC into Small PA on Projector cart.</t>
+  </si>
+  <si>
+    <t>Set up 2 stand mics - go thru mixer- from mixer to PA small. (On light is burnt out on mixer but it works).  Mics, stands, mic cables and mixer on projector cart in Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>2 mics plugged into mixer - from mixer to PA small. Volume control for mics on mixer and first knob on PA small. Plug black mini to phone cable (in milk carton box on Projector cart) into back of PC and out into PA small. Volume control for PC is 3rd knob on PA small.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Stong Dining Hall and not Stong MDR. Meet Tammy Douglas Cell 647-215-8728. Event starts at 8:00 pm but client wants equipment set up for 7:00 pm. She will meet you at 7:00 pm in Stong Dining Hall - please remind client they are locking the equipment in Stong Residence tonight when the event is over at 10:00 pm and I will meet them tomorrow at 8:30 am in Stong Lobby to pick up equipment. </t>
   </si>
 </sst>
 </file>
@@ -960,10 +984,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,6 +1629,326 @@
       </c>
       <c r="F70" s="19" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="148">
   <si>
     <t>Staff Name</t>
   </si>
@@ -984,10 +984,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,6 +1948,56 @@
         <v>135</v>
       </c>
       <c r="F92" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="10">
+        <v>42615</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="10">
+        <v>42615</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2324,7 +2374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2332,7 +2382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2348,7 +2398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2356,7 +2406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -2364,7 +2414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>81</v>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="175">
   <si>
     <t>Staff Name</t>
   </si>
@@ -466,6 +466,87 @@
   </si>
   <si>
     <t xml:space="preserve">This is Stong Dining Hall and not Stong MDR. Meet Tammy Douglas Cell 647-215-8728. Event starts at 8:00 pm but client wants equipment set up for 7:00 pm. She will meet you at 7:00 pm in Stong Dining Hall - please remind client they are locking the equipment in Stong Residence tonight when the event is over at 10:00 pm and I will meet them tomorrow at 8:30 am in Stong Lobby to pick up equipment. </t>
+  </si>
+  <si>
+    <t>Pick up small PA speacker on cart with matts, AC cords and returh to Berthune 201 storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up Lecturn mic and stand and clip and mic cable - return to Bethune 201 storeroom. </t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart and projector cart - return to Bethune 201 storeroom. Pick up all matts and return to storeroom. LEAVE PORTABLE SCREEN IN ROOM. Key for room in CB 121A keyrack.</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>NOTE: Make sure wireless keyboard goes back to drawer.</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>NOTE: Make sure wireless NECK MIC goes back to drawer.</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Make sure wireless NECK MIC goes back to drawer.</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
@@ -984,10 +1065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,6 +2080,618 @@
       </c>
       <c r="F98" s="19" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B129" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="180">
   <si>
     <t>Staff Name</t>
   </si>
@@ -547,6 +547,21 @@
   </si>
   <si>
     <t>121</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Demo neck mic and PC</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo neck mic and PC </t>
   </si>
 </sst>
 </file>
@@ -1065,9 +1080,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
@@ -2692,6 +2707,56 @@
       </c>
       <c r="E133" s="11" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="25"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -561,7 +561,7 @@
     <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve">Demo neck mic and PC </t>
+    <t>Demo neck  mic and PC - please demo log off for PC and touchscreen. Please tell prof to put neck mic back in podium drawer (on right hand side of podium) at end of class and shut cabinet tightly as no one will be there for 10:00 pm log off.</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>12</v>
       </c>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -135,9 +135,6 @@
     <t>Christina</t>
   </si>
   <si>
-    <t>Clairissa</t>
-  </si>
-  <si>
     <t>Hasebullah</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>Demo neck  mic and PC - please demo log off for PC and touchscreen. Please tell prof to put neck mic back in podium drawer (on right hand side of podium) at end of class and shut cabinet tightly as no one will be there for 10:00 pm log off.</t>
+  </si>
+  <si>
+    <t>Clair</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>20</v>
@@ -1125,22 +1125,22 @@
         <v>42570</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="21"/>
@@ -1149,28 +1149,28 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10">
         <v>42572</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="21"/>
@@ -1185,22 +1185,22 @@
         <v>42573</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="26"/>
@@ -1215,22 +1215,22 @@
         <v>42576</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="21"/>
@@ -1245,16 +1245,16 @@
         <v>42580</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,16 +1265,16 @@
         <v>42580</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,22 +1285,22 @@
         <v>42580</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="21"/>
@@ -1309,28 +1309,28 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10">
         <v>42587</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="21"/>
@@ -1339,28 +1339,28 @@
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="10">
         <v>42591</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="21"/>
@@ -1369,28 +1369,28 @@
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="10">
         <v>42594</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="21"/>
@@ -1399,28 +1399,28 @@
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="10">
         <v>42598</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="F40" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="21"/>
@@ -1435,22 +1435,22 @@
         <v>42601</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="21"/>
@@ -1465,16 +1465,16 @@
         <v>42605</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1485,16 +1485,16 @@
         <v>42605</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1505,16 +1505,16 @@
         <v>42605</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1525,22 +1525,22 @@
         <v>42605</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="21"/>
@@ -1549,28 +1549,28 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="10">
         <v>42606</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="21"/>
@@ -1579,28 +1579,28 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="10">
         <v>42607</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="21"/>
@@ -1609,128 +1609,128 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="10">
         <v>42608</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="F65" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="10">
         <v>42608</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="10">
         <v>42608</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="10">
         <v>42608</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" s="10">
         <v>42608</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="10">
         <v>42608</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="21"/>
@@ -1739,128 +1739,128 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="10">
         <v>42611</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="10">
         <v>42611</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="10">
         <v>42611</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="10">
         <v>42611</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="10">
         <v>42611</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="10">
         <v>42611</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="21"/>
@@ -1869,62 +1869,62 @@
     </row>
     <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="10">
         <v>42612</v>
       </c>
       <c r="C84" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="10">
         <v>42612</v>
       </c>
       <c r="C85" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F85" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="10">
         <v>42612</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F86" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1935,122 +1935,122 @@
         <v>42612</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F87" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="10">
         <v>42612</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="10">
         <v>42612</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="10">
         <v>42612</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="10">
         <v>42612</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="10">
         <v>42612</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="21"/>
@@ -2059,48 +2059,48 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="10">
         <v>42615</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="10">
         <v>42615</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="21"/>
@@ -2109,610 +2109,610 @@
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="10">
         <v>42620</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="10">
         <v>42620</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="10">
         <v>42620</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" s="10">
         <v>42620</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" s="10">
         <v>42620</v>
       </c>
       <c r="C107" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" s="10">
         <v>42620</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="10">
         <v>42620</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="10">
         <v>42620</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" s="10">
         <v>42620</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" s="10">
         <v>42620</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" s="10">
         <v>42620</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" s="10">
         <v>42620</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F114" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" s="10">
         <v>42620</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="10">
         <v>42620</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" s="10">
         <v>42620</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" s="10">
         <v>42620</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B119" s="10">
         <v>42620</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B120" s="10">
         <v>42620</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B121" s="10">
         <v>42620</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="10">
         <v>42620</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="10">
         <v>42620</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="10">
         <v>42620</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B125" s="10">
         <v>42620</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E125" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F125" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B126" s="10">
         <v>42620</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B127" s="10">
         <v>42620</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B128" s="10">
         <v>42620</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B129" s="10">
         <v>42620</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B130" s="10">
         <v>42620</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B131" s="10">
         <v>42620</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B132" s="10">
         <v>42620</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B133" s="10">
         <v>42620</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="21"/>
@@ -2727,16 +2727,16 @@
         <v>42621</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F138" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="F138" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2747,16 +2747,16 @@
         <v>42621</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F139" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2786,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -2837,34 +2837,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
@@ -2875,13 +2875,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,18 +2889,18 @@
         <v>33</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +2944,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,43 +2955,43 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -3010,29 +3010,29 @@
         <v>35</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -3040,24 +3040,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,47 +3065,47 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3113,15 +3113,15 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,43 +3145,43 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1082,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>125</v>
@@ -2744,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>176</v>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="181">
   <si>
     <t>Staff Name</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Clair</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Projector remote is on PC cart. EQUIPMENT STAYS IN ROOM. Lock room - key for room in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>125</v>
@@ -2744,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>176</v>
@@ -2757,6 +2760,36 @@
       </c>
       <c r="F139" s="19" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="21"/>
+      <c r="B143" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="25"/>
+    </row>
+    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144" s="10">
+        <v>42622</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="195">
   <si>
     <t>Staff Name</t>
   </si>
@@ -565,6 +565,48 @@
   </si>
   <si>
     <t>Turn off PC and projector. Projector remote is on PC cart. EQUIPMENT STAYS IN ROOM. Lock room - key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take cart with mixer, 2 wireless mics and 2 mic stands from Lassonde 1011 storeroom (across from Lassonde A). Go to Lassonde C classroom (class starts at 5:30 pm but be there early in case previous class ends early). </t>
+  </si>
+  <si>
+    <t>Log in as 5065*0 on touchscreen. (First level bar is your wireless handheld mic volume). Plug in mic cable from output of mixer to mic input on podium (XLR jack just above VHS machine in podium). Ramp up volume a bit on "Microphone 2" on touchscreen to medium volume to get level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plug in power cord from cart on to power outlet on left side of podium (to left of document camera). Turn on mixer. Turn on wireless microphone receivers on cart (NOTE: DO NOT PRESS "SYNC" BUTTON" - POWER BUTTON IS FIRST BUTTON TO THE RIGHT ON RECEIVER). </t>
+  </si>
+  <si>
+    <t>Press "MUTE" button on wireless microphones to turn on mics. Adjust volume by adjusting volume on mixer (inputs 1 and 2). Also you can adjust volume on first volume control bar on touchscreen. (NOTE: VOLUME ON TOUCHSCREEN MUST BE RAMPED UP OR DOWN INITIALLY TO GET ANY VOLUME - First volume bar).</t>
+  </si>
+  <si>
+    <t>Once volumes are set, place one mic stand with mic halfway up aisle on right and one mic stand with mic halfway up aisle on left. Demo volume controls to prof. and demo PC. Leave microphone bags with milk carton on cart in room. PLEASE FIND OUT END TIME OF CLASS FROM PROF. AND TELL MASI AS MICROPHONES ARE EXPENSIVE. TELL PROF. TO STAY WITH MICS UNTIL THEY ARE PICKED UP. TELL HIM TO CALL ext 55800   WHEN DONE (use phone in classroom).</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>MASI - THIS IS NOT REAL SAT</t>
+  </si>
+  <si>
+    <t>FOR MY RECORDS JL</t>
+  </si>
+  <si>
+    <t>LASSONDE C GOT CANCELLED LAST MINUTE BUT WANT TO SAVE INSTRUCTIONS. JEANNINE</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector carts from Stong Master's Dining Room. Pick up all cables, ac cords and matts and return to Bethune 201 storeroom. PLEASE LEAVE PORTABLE SCREEN IN ROOM. Stong MDR key is in CB 121A storeroom. STONG MDR is just to the right of Stong Dining Hall - go thru two black doors.</t>
+  </si>
+  <si>
+    <t>Pick up Small Speaker on cart and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic stand, mic and cable and return to Bethune 201 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1125,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,6 +2832,275 @@
       </c>
       <c r="F144" s="19" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="21"/>
+      <c r="B148" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="25"/>
+    </row>
+    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="10">
+        <v>42623</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="10">
+        <v>42623</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="10">
+        <v>42623</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="10">
+        <v>42623</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="10">
+        <v>42623</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="21"/>
+      <c r="B159" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C159" s="23"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="25"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="21"/>
+      <c r="B166" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" s="23"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="25"/>
+    </row>
+    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B169" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F169" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="198">
   <si>
     <t>Staff Name</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t>Pick up Lecturn mic stand, mic and cable and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>Pick up small speaker on cart and return to CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up neck mic and return to CB 111 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1134,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,6 +3110,46 @@
       </c>
       <c r="E170" s="11" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B171" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="206">
   <si>
     <t>Staff Name</t>
   </si>
@@ -616,6 +616,30 @@
   </si>
   <si>
     <t>Pick up neck mic and return to CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Demo equipment to prof. Make sure prof is happy.</t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic, clip, stand and mic cable. Pick up mixer and return all to CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up 2 wireless mics on stands with cart. Move all equipment on cart - cart has 2 wireless mic receivers and mixer and mic cables. Pick up 2 mic stands - return all equipment to Lassonde 1011 storeroom (across the hall from Lassonde A). PLEASE PUT 2 WIRELESS MICS IN BAGS PROVIDED IN MILK CARTON ON CART. Very expensive mics - please go early and treat mics with care.</t>
+  </si>
+  <si>
+    <t>Demo - please make sure prof is happy.</t>
+  </si>
+  <si>
+    <t>Turn off wireless microphones by pressing "MUTE" button on mics.</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Make sure client is happy.</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,6 +3174,326 @@
       </c>
       <c r="F172" s="19" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="21"/>
+      <c r="B176" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" s="23"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="25"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F177" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F181" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F182" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F183" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B184" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F184" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B185" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F185" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F186" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F189" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F190" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="21"/>
+      <c r="B194" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C194" s="23"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="25"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F195" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -639,7 +639,7 @@
     <t>215</t>
   </si>
   <si>
-    <t>Make sure client is happy.</t>
+    <t>Arrive 10 minutes early. Ensure that the instructor does not require further assistance before you leave.</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+      <selection activeCell="F203" sqref="F202:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3476,7 @@
       <c r="E194" s="24"/>
       <c r="F194" s="25"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>12</v>
       </c>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logs!#REF!</definedName>
     <definedName name="Building">database!$C$2:$C$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Logs!$1:$1</definedName>
-    <definedName name="Staff_Name">database!$A$2:$A$38</definedName>
+    <definedName name="Staff_Name">database!$A$2:$A$39</definedName>
     <definedName name="Task_type">database!$B$2:$B$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="212">
   <si>
     <t>Staff Name</t>
   </si>
@@ -640,6 +640,24 @@
   </si>
   <si>
     <t>Arrive 10 minutes early. Ensure that the instructor does not require further assistance before you leave.</t>
+  </si>
+  <si>
+    <t>PLEASE BE ON TIME - Prof upset last week when no one came till 7:05 pm and other class was starting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn off wireless microphone receivers by pressing "POWER" button and not "SYNC" button. </t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Make sure prof is happy. Go 10 minutes early to class.</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Return keyboard and DVD remote to drawer.</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F203" sqref="F202:F203"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,6 +3512,246 @@
       </c>
       <c r="F195" s="19" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="21"/>
+      <c r="B199" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C199" s="23"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="25"/>
+    </row>
+    <row r="200" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B200" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F200" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F201" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F202" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F203" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F204" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B205" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F205" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F207" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F208" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="21"/>
+      <c r="B212" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="23"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="25"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F213" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3781,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +4168,9 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="217">
   <si>
     <t>Staff Name</t>
   </si>
@@ -658,6 +658,21 @@
   </si>
   <si>
     <t>Return keyboard and DVD remote to drawer.</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Login and demo PC and Projector to client. Event starts at 17:30. EQUIPMENT IS IN ROOM - PC AND PROJECTOR. STAYS IN ROOM.</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>EQUIPMENT STAYS IN ROOM - JUST LOG OFF PC AND TURN OFF PROJECTOR.</t>
+  </si>
+  <si>
+    <t>Log off - Return wireless keyboard to drawer.</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1191,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,6 +3767,310 @@
       </c>
       <c r="F214" s="19" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="21"/>
+      <c r="B218" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C218" s="23"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="25"/>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F219" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F220" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F221" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F222" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F223" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F224" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B227" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F227" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F228" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F229" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F230" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B231" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F231" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B232" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F232" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B233" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F233" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F237" sqref="F237"/>
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logs!#REF!</definedName>
     <definedName name="Building">database!$C$2:$C$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Logs!$1:$1</definedName>
-    <definedName name="Staff_Name">database!$A$2:$A$39</definedName>
+    <definedName name="Staff_Name">database!$A$2:$A$56</definedName>
     <definedName name="Task_type">database!$B$2:$B$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="240">
   <si>
     <t>Staff Name</t>
   </si>
@@ -648,9 +648,6 @@
     <t xml:space="preserve">Turn off wireless microphone receivers by pressing "POWER" button and not "SYNC" button. </t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>Make sure prof is happy. Go 10 minutes early to class.</t>
   </si>
   <si>
@@ -673,6 +670,78 @@
   </si>
   <si>
     <t>Log off - Return wireless keyboard to drawer.</t>
+  </si>
+  <si>
+    <t>LEAVE ALL EQUIPMENT IN ROOM. JUST TURN OFF PC AND PROJECTOR AND MAKE SURE EQUIPMENT IS LOCKED IN ROOM. KEY IN CB 121A STOREROOM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M  </t>
+  </si>
+  <si>
+    <t>Log off Roll in PC and Projector. LEAVE ROLL IN PC AND PROJECTOR IN ROOM. TURN OFF TOUCH SCREEN AND SHUT CABINET DOOR.</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>Please make sure touchscreen is turned off and projectors are turned off.</t>
+  </si>
+  <si>
+    <t>NO PROJECTOR IN CEILING - we have placed a roll in PC and Projector in room already. Please demo to prof if they need PC.</t>
+  </si>
+  <si>
+    <t>Not Covered</t>
+  </si>
+  <si>
+    <t>Aamina</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Jamaiya</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Marutikumar</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Mirwaiss</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Nudrat</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Tehreem</t>
+  </si>
+  <si>
+    <t>Vladislav</t>
+  </si>
+  <si>
+    <t>Wardha</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1260,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3746,7 +3815,7 @@
         <v>204</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,10 +3832,10 @@
         <v>61</v>
       </c>
       <c r="E214" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F214" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="F214" s="19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -3793,10 +3862,10 @@
         <v>74</v>
       </c>
       <c r="E219" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F219" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="F219" s="19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4021,16 +4090,16 @@
         <v>42634</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,7 +4119,7 @@
         <v>163</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,7 +4139,377 @@
         <v>164</v>
       </c>
       <c r="F233" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="21"/>
+      <c r="B237" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C237" s="23"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="24"/>
+      <c r="F237" s="25"/>
+    </row>
+    <row r="238" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B238" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F238" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F239" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F240" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F241" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F242" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B243" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F243" s="19" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B244" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F244" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B245" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F245" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B246" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F246" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F247" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F248" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F249" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B250" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F250" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B251" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F251" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B252" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F252" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B253" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F253" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B254" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F254" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F255" s="19" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4539,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4562,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>81</v>
@@ -4134,7 +4573,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>32</v>
@@ -4145,7 +4584,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>12</v>
@@ -4156,7 +4595,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>16</v>
@@ -4167,7 +4606,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
@@ -4178,7 +4617,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
@@ -4189,7 +4628,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>19</v>
@@ -4200,7 +4639,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>83</v>
@@ -4211,7 +4650,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>92</v>
@@ -4222,7 +4661,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>88</v>
@@ -4233,7 +4672,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>89</v>
@@ -4244,7 +4683,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>94</v>
@@ -4255,7 +4694,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>86</v>
@@ -4266,7 +4705,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>53</v>
@@ -4277,7 +4716,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>13</v>
@@ -4288,7 +4727,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>49</v>
@@ -4299,7 +4738,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>90</v>
@@ -4310,7 +4749,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>85</v>
@@ -4321,7 +4760,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>91</v>
@@ -4332,7 +4771,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>82</v>
@@ -4343,7 +4782,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>87</v>
@@ -4354,7 +4793,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>93</v>
@@ -4365,7 +4804,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>84</v>
@@ -4376,7 +4815,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -4384,7 +4823,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>72</v>
@@ -4392,7 +4831,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
@@ -4400,7 +4839,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
@@ -4408,7 +4847,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>104</v>
@@ -4416,7 +4855,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>76</v>
@@ -4424,7 +4863,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>58</v>
@@ -4432,7 +4871,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -4440,7 +4879,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
@@ -4448,7 +4887,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -4456,7 +4895,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
@@ -4464,7 +4903,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
@@ -4472,7 +4911,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -4480,7 +4919,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
@@ -4488,53 +4927,99 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -4543,8 +5028,8 @@
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C40">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:A56">
+    <sortCondition ref="A2:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="249">
   <si>
     <t>Staff Name</t>
   </si>
@@ -742,6 +742,33 @@
   </si>
   <si>
     <t>Wardha</t>
+  </si>
+  <si>
+    <t>Please demo equipment to client and make sure client is happy.</t>
+  </si>
+  <si>
+    <t>Make sure neck mic goes back to drawer and log off touchscreen.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NO CEILING PROJECTOR - Use roll in PC and Projector that is in room. Make sure client is okay.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>PLEASE LOCK ROOM. ALLEN KEY (with yellow handle) and CLH key is on keyrack in Lassonde 1011 office. PLEASE LOCK ALL 4 DOORS.</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>LEAVE ROLL IN PC AND PROJECTOR IN ROOM - JUST TURN OFF. PLEASE LOCK ROOM. ALLEN KEY (with yellow handle) and CLH key is on keyrack in Lasonde 1011 office. PLEASE LOCK ALL 4 DOORS.</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1287,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F272" sqref="F272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,6 +4537,216 @@
       </c>
       <c r="F255" s="19" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="21"/>
+      <c r="B259" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C259" s="23"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="24"/>
+      <c r="F259" s="25"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F260" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B261" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F261" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B262" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F262" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B263" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F263" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F264" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F265" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F266" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F267" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F268" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F269" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="251">
   <si>
     <t>Staff Name</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>Turn off PC and log off touchscreen. Make sure neck mic goes back to drawer.</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1293,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F297" sqref="F297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,7 +4723,7 @@
         <v>42640</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>24</v>
@@ -4737,7 +4743,7 @@
         <v>42640</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>24</v>
@@ -4746,6 +4752,396 @@
         <v>248</v>
       </c>
       <c r="F269" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="21"/>
+      <c r="B273" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C273" s="23"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="24"/>
+      <c r="F273" s="25"/>
+    </row>
+    <row r="274" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B274" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F274" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B275" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F275" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F276" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F277" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B278" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F278" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F279" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B280" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F280" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F281" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F282" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B283" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F283" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F284" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F285" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B286" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F286" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B287" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F287" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B288" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F288" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F289" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F290" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F291" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F292" s="19" t="s">
         <v>245</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="256">
   <si>
     <t>Staff Name</t>
   </si>
@@ -775,6 +775,21 @@
   </si>
   <si>
     <t>Turn off PC and log off touchscreen. Make sure neck mic goes back to drawer.</t>
+  </si>
+  <si>
+    <t>LEAVE ALL EQUIPMENT IN ROOM. JUST LOG OFF PC AND PROJECTOR AND LOCK IN. Key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Remote for projector is on PC cart - please leave there.</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>1400</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1308,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F297" sqref="F297"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,7 +5088,7 @@
         <v>42641</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
@@ -5093,7 +5108,7 @@
         <v>42641</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>24</v>
@@ -5113,7 +5128,7 @@
         <v>42641</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>24</v>
@@ -5133,7 +5148,7 @@
         <v>42641</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>24</v>
@@ -5143,6 +5158,746 @@
       </c>
       <c r="F292" s="19" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="21"/>
+      <c r="B296" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C296" s="23"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="25"/>
+    </row>
+    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B297" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F297" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F298" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B299" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F299" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B300" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F300" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B301" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F301" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B302" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F302" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F303" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F304" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F305" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F306" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F307" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F308" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F309" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F310" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="21"/>
+      <c r="B315" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C315" s="23"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="24"/>
+      <c r="F315" s="25"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B316" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F316" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B317" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F317" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B318" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F318" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B319" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F319" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B320" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F320" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B321" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F321" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" s="10">
+        <v>42643</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F322" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="21"/>
+      <c r="B326" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C326" s="23"/>
+      <c r="D326" s="21"/>
+      <c r="E326" s="24"/>
+      <c r="F326" s="25"/>
+    </row>
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" s="10">
+        <v>42644</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F327" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328" s="10">
+        <v>42644</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F328" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" s="10">
+        <v>42644</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F329" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B330" s="10">
+        <v>42644</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F330" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="21"/>
+      <c r="B334" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C334" s="23"/>
+      <c r="D334" s="21"/>
+      <c r="E334" s="24"/>
+      <c r="F334" s="25"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B335" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F335" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B336" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F336" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B337" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F337" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B338" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F338" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B339" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F339" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F340" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F341" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B342" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F342" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B343" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F343" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B344" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F344" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="256">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1308,10 +1308,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A344" sqref="A344"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5898,6 +5898,586 @@
       </c>
       <c r="F344" s="19" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="21"/>
+      <c r="B348" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C348" s="23"/>
+      <c r="D348" s="21"/>
+      <c r="E348" s="24"/>
+      <c r="F348" s="25"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B349" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F349" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B350" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F350" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B351" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F351" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F352" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E353" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F353" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B354" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E354" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F354" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B355" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F355" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B356" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F356" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="21"/>
+      <c r="B361" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C361" s="23"/>
+      <c r="D361" s="21"/>
+      <c r="E361" s="24"/>
+      <c r="F361" s="25"/>
+    </row>
+    <row r="362" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B362" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F363" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E364" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F364" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F365" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B367" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B368" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F368" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B369" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F369" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B370" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F370" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F371" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F372" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F373" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F374" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F375" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B376" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F376" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B377" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F377" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B378" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F378" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B379" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F379" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="258">
   <si>
     <t>Staff Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Christina</t>
   </si>
   <si>
-    <t>Hasebullah</t>
-  </si>
-  <si>
     <t>Jackie</t>
   </si>
   <si>
@@ -790,6 +787,15 @@
   </si>
   <si>
     <t>1400</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>Haseb</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1314,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>20</v>
@@ -1353,22 +1359,22 @@
         <v>42570</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="21"/>
@@ -1377,28 +1383,28 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10">
         <v>42572</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="21"/>
@@ -1413,22 +1419,22 @@
         <v>42573</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="26"/>
@@ -1443,22 +1449,22 @@
         <v>42576</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="21"/>
@@ -1473,16 +1479,16 @@
         <v>42580</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,16 +1499,16 @@
         <v>42580</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,22 +1519,22 @@
         <v>42580</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="21"/>
@@ -1537,28 +1543,28 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="10">
         <v>42587</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="21"/>
@@ -1567,28 +1573,28 @@
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="10">
         <v>42591</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="21"/>
@@ -1597,28 +1603,28 @@
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="10">
         <v>42594</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="21"/>
@@ -1627,28 +1633,28 @@
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10">
         <v>42598</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="F40" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="21"/>
@@ -1663,22 +1669,22 @@
         <v>42601</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="21"/>
@@ -1693,16 +1699,16 @@
         <v>42605</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1713,16 +1719,16 @@
         <v>42605</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1733,16 +1739,16 @@
         <v>42605</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1753,22 +1759,22 @@
         <v>42605</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="21"/>
@@ -1777,28 +1783,28 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="10">
         <v>42606</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="21"/>
@@ -1807,28 +1813,28 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="10">
         <v>42607</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="21"/>
@@ -1837,128 +1843,128 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="10">
         <v>42608</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="F65" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="10">
         <v>42608</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="10">
         <v>42608</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="10">
         <v>42608</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="10">
         <v>42608</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="10">
         <v>42608</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="21"/>
@@ -1967,128 +1973,128 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="10">
         <v>42611</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="10">
         <v>42611</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="10">
         <v>42611</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="10">
         <v>42611</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="10">
         <v>42611</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="10">
         <v>42611</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="21"/>
@@ -2097,62 +2103,62 @@
     </row>
     <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="10">
         <v>42612</v>
       </c>
       <c r="C84" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="10">
         <v>42612</v>
       </c>
       <c r="C85" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="F85" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="10">
         <v>42612</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="F86" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -2163,122 +2169,122 @@
         <v>42612</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="F87" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="10">
         <v>42612</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="10">
         <v>42612</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" s="10">
         <v>42612</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="10">
         <v>42612</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="10">
         <v>42612</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="21"/>
@@ -2287,48 +2293,48 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97" s="10">
         <v>42615</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98" s="10">
         <v>42615</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="21"/>
@@ -2337,610 +2343,610 @@
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="10">
         <v>42620</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="10">
         <v>42620</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="10">
         <v>42620</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="10">
         <v>42620</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107" s="10">
         <v>42620</v>
       </c>
       <c r="C107" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="10">
         <v>42620</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="10">
         <v>42620</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B110" s="10">
         <v>42620</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B111" s="10">
         <v>42620</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112" s="10">
         <v>42620</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B113" s="10">
         <v>42620</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B114" s="10">
         <v>42620</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F114" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B115" s="10">
         <v>42620</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B116" s="10">
         <v>42620</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B117" s="10">
         <v>42620</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B118" s="10">
         <v>42620</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B119" s="10">
         <v>42620</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="10">
         <v>42620</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="10">
         <v>42620</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122" s="10">
         <v>42620</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="10">
         <v>42620</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B124" s="10">
         <v>42620</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B125" s="10">
         <v>42620</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E125" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F125" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B126" s="10">
         <v>42620</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B127" s="10">
         <v>42620</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B128" s="10">
         <v>42620</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B129" s="10">
         <v>42620</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B130" s="10">
         <v>42620</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B131" s="10">
         <v>42620</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B132" s="10">
         <v>42620</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="10">
         <v>42620</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="21"/>
@@ -2955,16 +2961,16 @@
         <v>42621</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F138" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="F138" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2975,22 +2981,22 @@
         <v>42621</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F139" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="21"/>
@@ -2999,28 +3005,28 @@
     </row>
     <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B144" s="10">
         <v>42622</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="21"/>
@@ -3029,22 +3035,22 @@
     </row>
     <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B149" s="10">
         <v>42623</v>
       </c>
       <c r="C149" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F149" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3055,16 +3061,16 @@
         <v>42623</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3075,16 +3081,16 @@
         <v>42623</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3095,16 +3101,16 @@
         <v>42623</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -3115,33 +3121,33 @@
         <v>42623</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="F154" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="F154" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="21"/>
@@ -3156,13 +3162,13 @@
         <v>42625</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,13 +3179,13 @@
         <v>42625</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,7 +3196,7 @@
         <v>42625</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>24</v>
@@ -3202,7 +3208,7 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="21"/>
@@ -3211,62 +3217,62 @@
     </row>
     <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B167" s="10">
         <v>42626</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B168" s="10">
         <v>42626</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B169" s="10">
         <v>42626</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,59 +3283,59 @@
         <v>42626</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B171" s="10">
         <v>42626</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B172" s="10">
         <v>42626</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="21"/>
@@ -3344,16 +3350,16 @@
         <v>42627</v>
       </c>
       <c r="C177" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F177" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,36 +3370,36 @@
         <v>42627</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B179" s="10">
         <v>42627</v>
       </c>
       <c r="C179" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F179" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D179" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F179" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3404,16 +3410,16 @@
         <v>42627</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3424,16 +3430,16 @@
         <v>42627</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3444,16 +3450,16 @@
         <v>42627</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -3464,56 +3470,56 @@
         <v>42627</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B184" s="10">
         <v>42627</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B185" s="10">
         <v>42627</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3524,16 +3530,16 @@
         <v>42627</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,16 +3550,16 @@
         <v>42627</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -3564,7 +3570,7 @@
         <v>42627</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>24</v>
@@ -3573,7 +3579,7 @@
         <v>30</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,16 +3590,16 @@
         <v>42627</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,22 +3610,22 @@
         <v>42627</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="21"/>
@@ -3634,22 +3640,22 @@
         <v>42628</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E195" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F195" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="F195" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="21"/>
       <c r="B199" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="21"/>
@@ -3658,22 +3664,22 @@
     </row>
     <row r="200" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B200" s="10">
         <v>42632</v>
       </c>
       <c r="C200" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F200" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F200" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3684,16 +3690,16 @@
         <v>42632</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3704,16 +3710,16 @@
         <v>42632</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3724,16 +3730,16 @@
         <v>42632</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -3744,36 +3750,36 @@
         <v>42632</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B205" s="10">
         <v>42632</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3784,16 +3790,16 @@
         <v>42632</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3804,16 +3810,16 @@
         <v>42632</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3824,22 +3830,22 @@
         <v>42632</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="21"/>
@@ -3854,42 +3860,42 @@
         <v>42633</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B214" s="10">
         <v>42633</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E214" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F214" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="F214" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="21"/>
       <c r="B218" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="21"/>
@@ -3904,36 +3910,36 @@
         <v>42634</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E219" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F219" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="F219" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B220" s="10">
         <v>42634</v>
       </c>
       <c r="C220" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F220" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F220" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3944,16 +3950,16 @@
         <v>42634</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F221" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3964,16 +3970,16 @@
         <v>42634</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3984,16 +3990,16 @@
         <v>42634</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F223" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -4004,16 +4010,16 @@
         <v>42634</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,13 +4030,13 @@
         <v>42634</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,33 +4047,33 @@
         <v>42634</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B227" s="10">
         <v>42634</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4078,16 +4084,16 @@
         <v>42634</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4098,16 +4104,16 @@
         <v>42634</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4118,82 +4124,82 @@
         <v>42634</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B231" s="10">
         <v>42634</v>
       </c>
       <c r="C231" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F231" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F231" s="19" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B232" s="10">
         <v>42634</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B233" s="10">
         <v>42634</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C237" s="23"/>
       <c r="D237" s="21"/>
@@ -4202,22 +4208,22 @@
     </row>
     <row r="238" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B238" s="10">
         <v>42639</v>
       </c>
       <c r="C238" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F238" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F238" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4228,16 +4234,16 @@
         <v>42639</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F239" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4248,16 +4254,16 @@
         <v>42639</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -4268,16 +4274,16 @@
         <v>42639</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -4288,96 +4294,96 @@
         <v>42639</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F242" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B243" s="10">
         <v>42639</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B244" s="10">
         <v>42639</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E244" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F244" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="F244" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B245" s="10">
         <v>42639</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B246" s="10">
         <v>42639</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F246" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4388,16 +4394,16 @@
         <v>42639</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4408,16 +4414,16 @@
         <v>42639</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F248" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4428,116 +4434,116 @@
         <v>42639</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B250" s="10">
         <v>42639</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F250" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B251" s="10">
         <v>42639</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B252" s="10">
         <v>42639</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B253" s="10">
         <v>42639</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B254" s="10">
         <v>42639</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4548,22 +4554,22 @@
         <v>42639</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F255" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
       <c r="B259" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C259" s="23"/>
       <c r="D259" s="21"/>
@@ -4578,76 +4584,76 @@
         <v>42640</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B261" s="10">
         <v>42640</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B262" s="10">
         <v>42640</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F262" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B263" s="10">
         <v>42640</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4658,16 +4664,16 @@
         <v>42640</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E264" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F264" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F264" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4678,16 +4684,16 @@
         <v>42640</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4698,7 +4704,7 @@
         <v>42640</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>24</v>
@@ -4707,7 +4713,7 @@
         <v>30</v>
       </c>
       <c r="F266" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4718,16 +4724,16 @@
         <v>42640</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F267" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4738,16 +4744,16 @@
         <v>42640</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4758,22 +4764,22 @@
         <v>42640</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
       <c r="B273" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="21"/>
@@ -4782,22 +4788,22 @@
     </row>
     <row r="274" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B274" s="10">
         <v>42641</v>
       </c>
       <c r="C274" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F274" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F274" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4808,16 +4814,16 @@
         <v>42641</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F275" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4828,16 +4834,16 @@
         <v>42641</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F276" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -4848,16 +4854,16 @@
         <v>42641</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F277" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -4868,16 +4874,16 @@
         <v>42641</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F278" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4888,36 +4894,36 @@
         <v>42641</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E279" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F279" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F279" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B280" s="10">
         <v>42641</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F280" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4928,16 +4934,16 @@
         <v>42641</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F281" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4948,16 +4954,16 @@
         <v>42641</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F282" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4968,16 +4974,16 @@
         <v>42641</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F283" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4988,16 +4994,16 @@
         <v>42641</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F284" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5008,76 +5014,76 @@
         <v>42641</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F285" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F285" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B286" s="10">
         <v>42641</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F286" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B287" s="10">
         <v>42641</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F287" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B288" s="10">
         <v>42641</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5088,16 +5094,16 @@
         <v>42641</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F289" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5108,16 +5114,16 @@
         <v>42641</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F290" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5128,7 +5134,7 @@
         <v>42641</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>24</v>
@@ -5137,7 +5143,7 @@
         <v>30</v>
       </c>
       <c r="F291" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5148,22 +5154,22 @@
         <v>42641</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F292" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C296" s="23"/>
       <c r="D296" s="21"/>
@@ -5172,22 +5178,22 @@
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B297" s="10">
         <v>42642</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F297" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,96 +5204,96 @@
         <v>42642</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F298" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B299" s="10">
         <v>42642</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F299" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B300" s="10">
         <v>42642</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F300" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B301" s="10">
         <v>42642</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F301" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B302" s="10">
         <v>42642</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F302" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5298,16 +5304,16 @@
         <v>42642</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F303" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5318,16 +5324,16 @@
         <v>42642</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E304" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F304" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F304" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5338,16 +5344,16 @@
         <v>42642</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F305" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5358,16 +5364,16 @@
         <v>42642</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E306" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F306" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F306" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5378,7 +5384,7 @@
         <v>42642</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>24</v>
@@ -5387,7 +5393,7 @@
         <v>30</v>
       </c>
       <c r="F307" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5398,16 +5404,16 @@
         <v>42642</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5418,16 +5424,16 @@
         <v>42642</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F309" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5438,22 +5444,22 @@
         <v>42642</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F310" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="21"/>
       <c r="B315" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="21"/>
@@ -5462,122 +5468,122 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B316" s="10">
         <v>42643</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B317" s="10">
         <v>42643</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B318" s="10">
         <v>42643</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B319" s="10">
         <v>42643</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F319" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B320" s="10">
         <v>42643</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F320" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B321" s="10">
         <v>42643</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F321" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5588,22 +5594,22 @@
         <v>42643</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F322" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C326" s="23"/>
       <c r="D326" s="21"/>
@@ -5618,7 +5624,7 @@
         <v>42644</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>24</v>
@@ -5627,7 +5633,7 @@
         <v>30</v>
       </c>
       <c r="F327" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5638,16 +5644,16 @@
         <v>42644</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F328" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5658,16 +5664,16 @@
         <v>42644</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F329" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5678,22 +5684,22 @@
         <v>42644</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F330" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C334" s="23"/>
       <c r="D334" s="21"/>
@@ -5702,102 +5708,102 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B335" s="10">
         <v>42646</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F335" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B336" s="10">
         <v>42646</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F336" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B337" s="10">
         <v>42646</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F337" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B338" s="10">
         <v>42646</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F338" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B339" s="10">
         <v>42646</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F339" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5808,16 +5814,16 @@
         <v>42646</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F340" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5828,16 +5834,16 @@
         <v>42646</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F341" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5848,16 +5854,16 @@
         <v>42646</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F342" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5868,7 +5874,7 @@
         <v>42646</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>24</v>
@@ -5877,7 +5883,7 @@
         <v>30</v>
       </c>
       <c r="F343" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5888,22 +5894,22 @@
         <v>42646</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F344" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C348" s="23"/>
       <c r="D348" s="21"/>
@@ -5912,62 +5918,62 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B349" s="10">
         <v>42647</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F349" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B350" s="10">
         <v>42647</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F350" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B351" s="10">
         <v>42647</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F351" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5978,16 +5984,16 @@
         <v>42647</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E352" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F352" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F352" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5998,16 +6004,16 @@
         <v>42647</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F353" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6018,16 +6024,16 @@
         <v>42647</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F354" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6038,7 +6044,7 @@
         <v>42647</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>24</v>
@@ -6047,7 +6053,7 @@
         <v>30</v>
       </c>
       <c r="F355" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6058,16 +6064,16 @@
         <v>42647</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F356" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6078,22 +6084,22 @@
         <v>42647</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F357" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C361" s="23"/>
       <c r="D361" s="21"/>
@@ -6102,22 +6108,22 @@
     </row>
     <row r="362" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B362" s="10">
         <v>42648</v>
       </c>
       <c r="C362" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F362" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E362" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F362" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -6128,16 +6134,16 @@
         <v>42648</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F363" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -6148,16 +6154,16 @@
         <v>42648</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F364" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6168,16 +6174,16 @@
         <v>42648</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F365" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6188,96 +6194,96 @@
         <v>42648</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F366" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B367" s="10">
         <v>42648</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F367" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B368" s="10">
         <v>42648</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F368" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B369" s="10">
         <v>42648</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F369" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B370" s="10">
         <v>42648</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F370" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6288,16 +6294,16 @@
         <v>42648</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F371" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6308,16 +6314,16 @@
         <v>42648</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F372" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6328,16 +6334,16 @@
         <v>42648</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F373" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6348,16 +6354,16 @@
         <v>42648</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E374" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F374" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F374" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6368,16 +6374,16 @@
         <v>42648</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E375" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F375" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F375" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6388,16 +6394,16 @@
         <v>42648</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F376" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6408,16 +6414,16 @@
         <v>42648</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E377" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F377" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6428,7 +6434,7 @@
         <v>42648</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>24</v>
@@ -6437,7 +6443,7 @@
         <v>30</v>
       </c>
       <c r="F378" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6448,16 +6454,16 @@
         <v>42648</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E379" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F379" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6468,16 +6474,186 @@
         <v>42648</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E380" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="21"/>
+      <c r="B384" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C384" s="23"/>
+      <c r="D384" s="21"/>
+      <c r="E384" s="24"/>
+      <c r="F384" s="25"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B385" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F385" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B386" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F386" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B387" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F387" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B388" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F388" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B389" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F389" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C390" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F380" s="19" t="s">
-        <v>245</v>
+      <c r="D390" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F390" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F391" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" s="10">
+        <v>42649</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D392" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F392" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6507,14 +6683,14 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6530,35 +6706,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6568,8 +6744,8 @@
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
+      <c r="C5" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6579,19 +6755,19 @@
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="C7" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6601,52 +6777,52 @@
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6654,21 +6830,21 @@
         <v>33</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6676,10 +6852,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6689,19 +6865,19 @@
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
+      <c r="C16" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,10 +6885,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,213 +6896,216 @@
         <v>5</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
+      <c r="C26" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>227</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>228</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
+        <v>229</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
+        <v>230</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
+        <v>232</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
+        <v>221</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,7 +7115,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6946,12 +7125,12 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -6966,27 +7145,27 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -801,7 +806,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1020,6 +1025,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1067,7 +1075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,9 +1108,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,6 +1160,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1317,18 +1359,18 @@
   <dimension ref="A1:F392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392"/>
+      <selection activeCell="B385" sqref="B385:B392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="3"/>
+    <col min="5" max="5" width="11.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6501,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="B385" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C385" s="12" t="s">
         <v>108</v>
@@ -6521,7 +6563,7 @@
         <v>80</v>
       </c>
       <c r="B386" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C386" s="12" t="s">
         <v>140</v>
@@ -6541,7 +6583,7 @@
         <v>80</v>
       </c>
       <c r="B387" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C387" s="12" t="s">
         <v>140</v>
@@ -6561,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="B388" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C388" s="12" t="s">
         <v>108</v>
@@ -6581,7 +6623,7 @@
         <v>14</v>
       </c>
       <c r="B389" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C389" s="12" t="s">
         <v>255</v>
@@ -6601,7 +6643,7 @@
         <v>14</v>
       </c>
       <c r="B390" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C390" s="12" t="s">
         <v>248</v>
@@ -6621,7 +6663,7 @@
         <v>14</v>
       </c>
       <c r="B391" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C391" s="12" t="s">
         <v>248</v>
@@ -6641,7 +6683,7 @@
         <v>14</v>
       </c>
       <c r="B392" s="10">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>248</v>
@@ -6688,9 +6730,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="262">
   <si>
     <t>Staff Name</t>
   </si>
@@ -801,12 +796,24 @@
   </si>
   <si>
     <t>Haseb</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>EQUIPMENT THERE - JUST DEMO PC AND PROJECTOR. Make sure client is happy.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and Projector cart and matts and cords. Return to Bethune 201 storeroom. We do not have a key for CC 214.</t>
+  </si>
+  <si>
+    <t>RIGHT PROJECTOR NOT WORKING - USE LEFT PROJECTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -939,7 +946,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1013,6 +1020,15 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1024,9 +1040,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1075,7 +1088,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,26 +1121,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,23 +1156,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1356,21 +1335,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F392"/>
+  <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385:B392"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="3"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6308,64 +6287,64 @@
         <v>240</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B370" s="10">
         <v>42648</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F370" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B371" s="10">
         <v>42648</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F371" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B372" s="10">
         <v>42648</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F372" s="19" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6543,7 +6522,7 @@
         <v>80</v>
       </c>
       <c r="B385" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C385" s="12" t="s">
         <v>108</v>
@@ -6563,7 +6542,7 @@
         <v>80</v>
       </c>
       <c r="B386" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C386" s="12" t="s">
         <v>140</v>
@@ -6583,7 +6562,7 @@
         <v>80</v>
       </c>
       <c r="B387" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C387" s="12" t="s">
         <v>140</v>
@@ -6603,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="B388" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C388" s="12" t="s">
         <v>108</v>
@@ -6623,7 +6602,7 @@
         <v>14</v>
       </c>
       <c r="B389" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C389" s="12" t="s">
         <v>255</v>
@@ -6643,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="B390" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C390" s="12" t="s">
         <v>248</v>
@@ -6663,7 +6642,7 @@
         <v>14</v>
       </c>
       <c r="B391" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C391" s="12" t="s">
         <v>248</v>
@@ -6683,7 +6662,7 @@
         <v>14</v>
       </c>
       <c r="B392" s="10">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>248</v>
@@ -6696,6 +6675,406 @@
       </c>
       <c r="F392" s="19" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="21"/>
+      <c r="B397" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C397" s="23"/>
+      <c r="D397" s="21"/>
+      <c r="E397" s="24"/>
+      <c r="F397" s="25"/>
+    </row>
+    <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F398" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B399" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E399" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F399" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B400" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E400" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F400" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B401" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F401" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B402" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F402" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" s="10">
+        <v>42654</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F403" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="21"/>
+      <c r="B407" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C407" s="23"/>
+      <c r="D407" s="21"/>
+      <c r="E407" s="24"/>
+      <c r="F407" s="25"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B408" s="31">
+        <v>42655</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E408" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F408" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B409" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E409" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F409" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B410" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F410" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B411" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F411" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F412" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B413" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F413" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B414" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F414" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B415" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F415" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B416" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F416" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B417" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F417" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B418" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E418" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F418" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B419" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F419" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B420" s="10">
+        <v>42655</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F420" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6730,9 +7109,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="263">
   <si>
     <t>Staff Name</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>RIGHT PROJECTOR NOT WORKING - USE LEFT PROJECTOR</t>
+  </si>
+  <si>
+    <t>PLEASE MAKE SURE CRESTRON GETS LOGGED OFF. WE ARE HAVING PROBLEMS WITH THIS ROOM WHEN IT DOESN'T GET LOGGED OFF.</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F420"/>
+  <dimension ref="A1:F430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
+      <selection activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,6 +7078,136 @@
       </c>
       <c r="F420" s="19" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="21"/>
+      <c r="B424" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C424" s="23"/>
+      <c r="D424" s="21"/>
+      <c r="E424" s="24"/>
+      <c r="F424" s="25"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B425" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F425" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B426" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F426" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B427" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D427" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F427" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B428" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E428" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F428" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B429" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F429" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B430" s="10">
+        <v>42656</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F430" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="263">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1338,10 +1338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F430"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F434" sqref="F434"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436:B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,6 +7207,76 @@
         <v>30</v>
       </c>
       <c r="F430" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="21"/>
+      <c r="B434" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C434" s="23"/>
+      <c r="D434" s="21"/>
+      <c r="E434" s="24"/>
+      <c r="F434" s="25"/>
+    </row>
+    <row r="435" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B435" s="10">
+        <v>42659</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F435" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B436" s="10">
+        <v>42659</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F436" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" s="10">
+        <v>42659</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E437" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F437" s="19" t="s">
         <v>244</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="263">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1338,10 +1338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F437"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436:B437"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F462" sqref="F462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7225,7 +7225,7 @@
         <v>80</v>
       </c>
       <c r="B435" s="10">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C435" s="12" t="s">
         <v>108</v>
@@ -7245,7 +7245,7 @@
         <v>14</v>
       </c>
       <c r="B436" s="10">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C436" s="12" t="s">
         <v>108</v>
@@ -7265,7 +7265,7 @@
         <v>14</v>
       </c>
       <c r="B437" s="10">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C437" s="12" t="s">
         <v>108</v>
@@ -7278,6 +7278,316 @@
       </c>
       <c r="F437" s="19" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="21"/>
+      <c r="B441" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C441" s="23"/>
+      <c r="D441" s="21"/>
+      <c r="E441" s="24"/>
+      <c r="F441" s="25"/>
+    </row>
+    <row r="442" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B442" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E442" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F442" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B443" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D443" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E443" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F443" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E444" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F444" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B445" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D445" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E445" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F445" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B446" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D446" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E446" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F446" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B447" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E447" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F447" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B448" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D448" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E448" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F448" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B449" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F449" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B450" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E450" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F450" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B451" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F451" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B452" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F452" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B453" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D453" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F453" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B454" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D454" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F454" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B455" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D455" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E455" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F455" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B456" s="10">
+        <v>42660</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D456" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F456" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logs!#REF!</definedName>
-    <definedName name="Building">database!$C$2:$C$40</definedName>
+    <definedName name="Building">database!$C$2:$C$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Logs!$1:$1</definedName>
     <definedName name="Staff_Name">database!$A$2:$A$56</definedName>
     <definedName name="Task_type">database!$B$2:$B$25</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="263">
   <si>
     <t>Staff Name</t>
   </si>
@@ -792,9 +792,6 @@
     <t>2030</t>
   </si>
   <si>
-    <t>SCL</t>
-  </si>
-  <si>
     <t>Haseb</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>PLEASE MAKE SURE CRESTRON GETS LOGGED OFF. WE ARE HAVING PROBLEMS WITH THIS ROOM WHEN IT DOESN'T GET LOGGED OFF.</t>
+  </si>
+  <si>
+    <t>Log off built in PC - return wireless keyboard to Bethune 203 rack on right side of room in closet. Lock doors - key to room in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F456"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F462" sqref="F462"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6698,7 +6698,7 @@
         <v>42654</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>61</v>
@@ -6707,7 +6707,7 @@
         <v>158</v>
       </c>
       <c r="F398" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>158</v>
       </c>
       <c r="F399" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>136</v>
       </c>
       <c r="F408" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7187,7 +7187,7 @@
         <v>116</v>
       </c>
       <c r="F429" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7237,7 +7237,7 @@
         <v>116</v>
       </c>
       <c r="F435" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>116</v>
       </c>
       <c r="F447" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,6 +7587,366 @@
         <v>136</v>
       </c>
       <c r="F456" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="21"/>
+      <c r="B460" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C460" s="23"/>
+      <c r="D460" s="21"/>
+      <c r="E460" s="24"/>
+      <c r="F460" s="25"/>
+    </row>
+    <row r="461" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B461" s="10">
+        <v>42661</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D461" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E461" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F461" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B462" s="10">
+        <v>42661</v>
+      </c>
+      <c r="C462" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E462" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F462" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B463" s="10">
+        <v>42661</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F463" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B464" s="10">
+        <v>42661</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F464" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="21"/>
+      <c r="B468" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C468" s="23"/>
+      <c r="D468" s="21"/>
+      <c r="E468" s="24"/>
+      <c r="F468" s="25"/>
+    </row>
+    <row r="469" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B469" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E469" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F469" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B470" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F470" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B471" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F471" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B472" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F472" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B473" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D473" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E473" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F473" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B474" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F474" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B475" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D475" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F475" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B476" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F476" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B477" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F477" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B478" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D478" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E478" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F478" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B479" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F479" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B480" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D480" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F480" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B481" s="10">
+        <v>42662</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D481" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E481" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F481" s="19" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7617,7 +7977,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7849,7 +8209,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>81</v>
@@ -7928,7 +8288,7 @@
         <v>96</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>256</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,7 +8296,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7944,7 +8304,7 @@
         <v>228</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,7 +8312,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,7 +8320,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,7 +8328,7 @@
         <v>97</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7976,7 +8336,7 @@
         <v>98</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,7 +8344,7 @@
         <v>229</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,7 +8352,7 @@
         <v>230</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,7 +8360,7 @@
         <v>231</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8008,7 +8368,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,16 +8376,13 @@
         <v>221</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -8109,8 +8466,8 @@
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A56">
-    <sortCondition ref="A2:A56"/>
+  <sortState ref="C2:C41">
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="266">
   <si>
     <t>Staff Name</t>
   </si>
@@ -811,6 +811,15 @@
   </si>
   <si>
     <t>Log off built in PC - return wireless keyboard to Bethune 203 rack on right side of room in closet. Lock doors - key to room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic stand, mic and mic cables and matts. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up 2 large speakers, 2 speaker cables, 1 amplifier and cart, 1 long AC cord and 5 matts (2 by doorway). Return all equipment to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If client is using A/v -please tell them to log off when done with crestron. Show them how to log off with crestron. </t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1347,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F486" sqref="F486"/>
+    <sheetView tabSelected="1" topLeftCell="A476" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,69 +7819,69 @@
         <v>261</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B475" s="10">
         <v>42662</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E475" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F475" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B476" s="10">
         <v>42662</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E476" s="11" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F476" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B477" s="10">
         <v>42662</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E477" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F477" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B478" s="10">
         <v>42662</v>
@@ -7887,67 +7896,177 @@
         <v>136</v>
       </c>
       <c r="F478" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A479" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="21"/>
+      <c r="B482" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C482" s="23"/>
+      <c r="D482" s="21"/>
+      <c r="E482" s="24"/>
+      <c r="F482" s="25"/>
+    </row>
+    <row r="483" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B483" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C483" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F483" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B484" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C484" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F484" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B479" s="10">
-        <v>42662</v>
-      </c>
-      <c r="C479" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D479" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E479" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F479" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A480" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B480" s="10">
-        <v>42662</v>
-      </c>
-      <c r="C480" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D480" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E480" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F480" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A481" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B481" s="10">
-        <v>42662</v>
-      </c>
-      <c r="C481" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D481" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E481" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F481" s="19" t="s">
-        <v>205</v>
+      <c r="B485" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C485" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F485" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B486" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E486" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F486" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B487" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C487" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D487" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F487" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B488" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D488" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F488" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B489" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C489" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F489" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B490" s="10">
+        <v>42663</v>
+      </c>
+      <c r="C490" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E490" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F490" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="267">
   <si>
     <t>Staff Name</t>
   </si>
@@ -820,12 +825,15 @@
   </si>
   <si>
     <t xml:space="preserve">If client is using A/v -please tell them to log off when done with crestron. Show them how to log off with crestron. </t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and Projector carts, all matts and cables and return equipment to Bethune 201 storeroom. Key for Stong MDR is in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1053,6 +1061,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1100,7 +1111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1144,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,6 +1196,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1347,21 +1392,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A490" sqref="A490"/>
+    <sheetView tabSelected="1" topLeftCell="A479" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B496" sqref="B496:B497"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="3"/>
+    <col min="5" max="5" width="11.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8067,6 +8112,76 @@
       </c>
       <c r="F490" s="19" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="21"/>
+      <c r="B494" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C494" s="23"/>
+      <c r="D494" s="21"/>
+      <c r="E494" s="24"/>
+      <c r="F494" s="25"/>
+    </row>
+    <row r="495" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B495" s="10">
+        <v>42666</v>
+      </c>
+      <c r="C495" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D495" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E495" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F495" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B496" s="10">
+        <v>42666</v>
+      </c>
+      <c r="C496" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F496" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B497" s="10">
+        <v>42666</v>
+      </c>
+      <c r="C497" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D497" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F497" s="19" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -8101,9 +8216,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="271">
   <si>
     <t>Staff Name</t>
   </si>
@@ -828,12 +823,24 @@
   </si>
   <si>
     <t>Pick up roll in PC and Projector carts, all matts and cables and return equipment to Bethune 201 storeroom. Key for Stong MDR is in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up skype camera and tripod - RETURN SKYPE CAMERA, USB EXTESION AND TRIPOD TP ROSS S120. NEEDED FIRST THING In MORNING IN ROSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please go a little early as client can not lock room. </t>
+  </si>
+  <si>
+    <t>PLEASE LEAVE PORTABLE SCREEN IN STONG MDR.</t>
+  </si>
+  <si>
+    <t>Please turn off PC and Projector. Leave projector remote on PC cart and lock room.  EQUIPMENT STAYS IN ROOM. Key for room in CB 121A on Bethune classroom keys.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1061,9 +1068,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1111,7 +1115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,26 +1148,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,23 +1183,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1392,21 +1362,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B496" sqref="B496:B497"/>
+    <sheetView tabSelected="1" topLeftCell="A522" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F543" sqref="F543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="3"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8124,12 +8094,12 @@
       <c r="E494" s="24"/>
       <c r="F494" s="25"/>
     </row>
-    <row r="495" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B495" s="10">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C495" s="12" t="s">
         <v>108</v>
@@ -8149,7 +8119,7 @@
         <v>14</v>
       </c>
       <c r="B496" s="10">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C496" s="12" t="s">
         <v>255</v>
@@ -8169,7 +8139,7 @@
         <v>87</v>
       </c>
       <c r="B497" s="10">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C497" s="12" t="s">
         <v>119</v>
@@ -8182,6 +8152,686 @@
       </c>
       <c r="F497" s="19" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="21"/>
+      <c r="B501" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C501" s="23"/>
+      <c r="D501" s="21"/>
+      <c r="E501" s="24"/>
+      <c r="F501" s="25"/>
+    </row>
+    <row r="502" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B502" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F502" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B503" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D503" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E503" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F503" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B504" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D504" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E504" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F504" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B505" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C505" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D505" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E505" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F505" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B506" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D506" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E506" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F506" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B507" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C507" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D507" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E507" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F507" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B508" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C508" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D508" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E508" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F508" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B509" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C509" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D509" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E509" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F509" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B510" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D510" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E510" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F510" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B511" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C511" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D511" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E511" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F511" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B512" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C512" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D512" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E512" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F512" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B513" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C513" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D513" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E513" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F513" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B514" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D514" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E514" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F514" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B515" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C515" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D515" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F515" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B516" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D516" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E516" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F516" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B517" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D517" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E517" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F517" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B518" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D518" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E518" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F518" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B519" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C519" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D519" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E519" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F519" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B520" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D520" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E520" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F520" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B521" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C521" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E521" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F521" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B522" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D522" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E522" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F522" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B523" s="10">
+        <v>42667</v>
+      </c>
+      <c r="C523" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E523" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F523" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="21"/>
+      <c r="B527" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C527" s="23"/>
+      <c r="D527" s="21"/>
+      <c r="E527" s="24"/>
+      <c r="F527" s="25"/>
+    </row>
+    <row r="528" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B528" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F528" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B529" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D529" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F529" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B530" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C530" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D530" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E530" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F530" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B531" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C531" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D531" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E531" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F531" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B532" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C532" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D532" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E532" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F532" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B533" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C533" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D533" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E533" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F533" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B534" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D534" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E534" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F534" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B535" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C535" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D535" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E535" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F535" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B536" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D536" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E536" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F536" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C537" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E537" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F537" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B538" s="10">
+        <v>42668</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D538" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E538" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F538" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -8216,9 +8866,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="271">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1362,10 +1362,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F538"/>
+  <dimension ref="A1:F558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F543" sqref="F543"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F563" sqref="F563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,6 +8831,336 @@
         <v>121</v>
       </c>
       <c r="F538" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="21"/>
+      <c r="B542" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C542" s="23"/>
+      <c r="D542" s="21"/>
+      <c r="E542" s="24"/>
+      <c r="F542" s="25"/>
+    </row>
+    <row r="543" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B543" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C543" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D543" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E543" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F543" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B544" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D544" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F544" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B545" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C545" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D545" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E545" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F545" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B546" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C546" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D546" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E546" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F546" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B547" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C547" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D547" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E547" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F547" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B548" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D548" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E548" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F548" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B549" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C549" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D549" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E549" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F549" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B550" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C550" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D550" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E550" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F550" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B551" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C551" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D551" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E551" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F551" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B552" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D552" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E552" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F552" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B553" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C553" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E553" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F553" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B554" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D554" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E554" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F554" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B555" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C555" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D555" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E555" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F555" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B556" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D556" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E556" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F556" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B557" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C557" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D557" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E557" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F557" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B558" s="10">
+        <v>42669</v>
+      </c>
+      <c r="C558" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D558" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E558" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F558" s="19" t="s">
         <v>244</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="274">
   <si>
     <t>Staff Name</t>
   </si>
@@ -835,6 +835,15 @@
   </si>
   <si>
     <t>Please turn off PC and Projector. Leave projector remote on PC cart and lock room.  EQUIPMENT STAYS IN ROOM. Key for room in CB 121A on Bethune classroom keys.</t>
+  </si>
+  <si>
+    <t>Turn off PC and Projector in room. Projector remote is on PC cart - please leave on PC cart. ALL EQUIPMENT STAYS IN ROOM. Lock room - key on Bethune classroom keys in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Turn off PC and Projector in room. ALL EQUIPMENT STAYS IN ROOM. Lock room. Get key from Dean's office in 3rd floor Lumbers.</t>
+  </si>
+  <si>
+    <t>Return neck mic to drawer.</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1371,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F558"/>
+  <dimension ref="A1:F576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F563" sqref="F563"/>
+    <sheetView tabSelected="1" topLeftCell="A558" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F581" sqref="F581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9162,6 +9171,226 @@
       </c>
       <c r="F558" s="19" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="21"/>
+      <c r="B562" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C562" s="23"/>
+      <c r="D562" s="21"/>
+      <c r="E562" s="24"/>
+      <c r="F562" s="25"/>
+    </row>
+    <row r="563" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B563" s="10">
+        <v>42670</v>
+      </c>
+      <c r="C563" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D563" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F563" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B564" s="10">
+        <v>42670</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D564" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E564" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F564" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="21"/>
+      <c r="B568" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C568" s="23"/>
+      <c r="D568" s="21"/>
+      <c r="E568" s="24"/>
+      <c r="F568" s="25"/>
+    </row>
+    <row r="569" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B569" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C569" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D569" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F569" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B570" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C570" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D570" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F570" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B571" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C571" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D571" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F571" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B572" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C572" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D572" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F572" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B573" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C573" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D573" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F573" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B574" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C574" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D574" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E574" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F574" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B575" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C575" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D575" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E575" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F575" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B576" s="10">
+        <v>42671</v>
+      </c>
+      <c r="C576" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D576" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E576" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F576" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="274">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1371,10 +1371,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F576"/>
+  <dimension ref="A1:F599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F581" sqref="F581"/>
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F605" sqref="F605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,6 +9391,396 @@
       </c>
       <c r="F576" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="21"/>
+      <c r="B580" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C580" s="23"/>
+      <c r="D580" s="21"/>
+      <c r="E580" s="24"/>
+      <c r="F580" s="25"/>
+    </row>
+    <row r="581" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B581" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C581" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D581" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E581" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F581" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B582" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C582" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D582" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E582" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F582" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B583" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C583" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D583" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F583" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B584" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C584" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D584" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E584" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F584" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B585" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C585" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D585" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E585" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F585" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B586" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D586" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E586" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F586" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B587" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C587" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D587" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E587" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F587" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B588" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C588" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D588" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E588" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F588" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B589" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C589" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D589" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F589" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B590" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C590" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D590" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E590" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F590" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B591" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C591" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D591" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E591" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F591" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B592" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D592" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E592" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F592" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B593" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C593" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D593" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E593" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F593" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B594" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D594" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E594" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F594" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B595" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C595" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D595" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E595" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F595" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B596" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C596" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D596" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E596" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F596" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B597" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C597" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D597" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E597" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F597" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B598" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C598" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D598" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E598" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F598" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B599" s="10">
+        <v>42674</v>
+      </c>
+      <c r="C599" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D599" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E599" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F599" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="274">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1371,10 +1371,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F599"/>
+  <dimension ref="A1:F633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F605" sqref="F605"/>
+    <sheetView tabSelected="1" topLeftCell="A626" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F639" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9780,6 +9780,526 @@
         <v>30</v>
       </c>
       <c r="F599" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="21"/>
+      <c r="B604" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C604" s="23"/>
+      <c r="D604" s="21"/>
+      <c r="E604" s="24"/>
+      <c r="F604" s="25"/>
+    </row>
+    <row r="605" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B605" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C605" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D605" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F605" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B606" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D606" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E606" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F606" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B607" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C607" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D607" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F607" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B608" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D608" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F608" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B609" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C609" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D609" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F609" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B610" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C610" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D610" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E610" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F610" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B611" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C611" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D611" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E611" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F611" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B612" s="10">
+        <v>42675</v>
+      </c>
+      <c r="C612" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D612" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E612" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F612" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" s="21"/>
+      <c r="B616" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C616" s="23"/>
+      <c r="D616" s="21"/>
+      <c r="E616" s="24"/>
+      <c r="F616" s="25"/>
+    </row>
+    <row r="617" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B617" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C617" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D617" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F617" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B618" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C618" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D618" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F618" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B619" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C619" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D619" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F619" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B620" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C620" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D620" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E620" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F620" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B621" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C621" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D621" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F621" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B622" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C622" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D622" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E622" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F622" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B623" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C623" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D623" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F623" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B624" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C624" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D624" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E624" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F624" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B625" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C625" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D625" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E625" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F625" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B626" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D626" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E626" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F626" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B627" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C627" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D627" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E627" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F627" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B628" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D628" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E628" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F628" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B629" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C629" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D629" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E629" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F629" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B630" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C630" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D630" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E630" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F630" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B631" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C631" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D631" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E631" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F631" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B632" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C632" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D632" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E632" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F632" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B633" s="10">
+        <v>42676</v>
+      </c>
+      <c r="C633" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D633" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F633" s="19" t="s">
         <v>244</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="280">
   <si>
     <t>Staff Name</t>
   </si>
@@ -844,6 +844,24 @@
   </si>
   <si>
     <t>Return neck mic to drawer.</t>
+  </si>
+  <si>
+    <t>Built in PC not working - demo roll in PC cart in room already - make sure client okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up roll in PC cart from CLH C - return sound cable and VGA cable to drawer of podium. Return roll in PC cart to Lassonde 1011 storeroom. </t>
+  </si>
+  <si>
+    <t>LEAVE PORTABLE SCREEN IN ROOM</t>
+  </si>
+  <si>
+    <t>Turn on SMALL PA SYSTEM - don't use 5065*0 - won't work today. Use Small Pa speaker for audio.</t>
+  </si>
+  <si>
+    <t>Pick up SMALL PA SPEAKER ON CART. Return to Lassonde 1011 storeoroom.</t>
+  </si>
+  <si>
+    <t>Press "MUTE" button on wireless mics to turn on mics.</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1000,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1063,6 +1081,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,10 +1392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F633"/>
+  <dimension ref="A1:F679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F639" sqref="F639"/>
+    <sheetView tabSelected="1" topLeftCell="A668" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F682" sqref="F682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10301,6 +10322,676 @@
       </c>
       <c r="F633" s="19" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="21"/>
+      <c r="B637" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C637" s="23"/>
+      <c r="D637" s="21"/>
+      <c r="E637" s="24"/>
+      <c r="F637" s="25"/>
+    </row>
+    <row r="638" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B638" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C638" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D638" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E638" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F638" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B639" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C639" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D639" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E639" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F639" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B640" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C640" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D640" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E640" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F640" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B641" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C641" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D641" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E641" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F641" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B642" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C642" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D642" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E642" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F642" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B643" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C643" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D643" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E643" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F643" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B644" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C644" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D644" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E644" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F644" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B645" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C645" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D645" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E645" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F645" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B646" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C646" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D646" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E646" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F646" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B647" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C647" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D647" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E647" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F647" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B648" s="10">
+        <v>42677</v>
+      </c>
+      <c r="C648" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D648" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E648" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F648" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="21"/>
+      <c r="B653" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C653" s="23"/>
+      <c r="D653" s="21"/>
+      <c r="E653" s="24"/>
+      <c r="F653" s="25"/>
+    </row>
+    <row r="654" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B654" s="10">
+        <v>42678</v>
+      </c>
+      <c r="C654" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D654" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E654" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F654" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B655" s="10">
+        <v>42678</v>
+      </c>
+      <c r="C655" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D655" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E655" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F655" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B656" s="10">
+        <v>42678</v>
+      </c>
+      <c r="C656" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D656" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E656" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F656" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B657" s="10">
+        <v>42678</v>
+      </c>
+      <c r="C657" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D657" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E657" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F657" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="21"/>
+      <c r="B662" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C662" s="23"/>
+      <c r="D662" s="21"/>
+      <c r="E662" s="24"/>
+      <c r="F662" s="25"/>
+    </row>
+    <row r="663" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B663" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C663" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D663" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F663" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B664" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C664" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D664" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E664" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F664" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B665" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C665" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D665" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E665" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F665" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B666" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C666" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D666" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E666" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F666" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B667" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C667" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D667" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E667" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F667" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B668" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C668" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D668" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E668" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F668" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B669" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C669" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D669" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E669" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F669" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B670" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C670" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D670" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E670" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F670" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B671" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C671" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D671" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F671" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B672" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C672" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D672" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E672" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F672" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B673" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C673" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D673" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F673" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B674" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C674" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D674" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E674" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F674" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B675" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C675" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D675" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E675" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F675" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B676" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C676" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D676" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E676" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F676" s="34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B677" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C677" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D677" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F677" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B678" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C678" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D678" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E678" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F678" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B679" s="10">
+        <v>42681</v>
+      </c>
+      <c r="C679" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D679" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E679" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F679" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="280">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1392,10 +1392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F679"/>
+  <dimension ref="A1:F706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F682" sqref="F682"/>
+    <sheetView tabSelected="1" topLeftCell="A701" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F713" sqref="F713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10991,6 +10991,366 @@
         <v>136</v>
       </c>
       <c r="F679" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="21"/>
+      <c r="B684" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C684" s="23"/>
+      <c r="D684" s="21"/>
+      <c r="E684" s="24"/>
+      <c r="F684" s="25"/>
+    </row>
+    <row r="685" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B685" s="10">
+        <v>42682</v>
+      </c>
+      <c r="C685" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D685" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F685" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B686" s="10">
+        <v>42682</v>
+      </c>
+      <c r="C686" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D686" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E686" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F686" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B687" s="10">
+        <v>42682</v>
+      </c>
+      <c r="C687" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D687" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F687" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B688" s="10">
+        <v>42682</v>
+      </c>
+      <c r="C688" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D688" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E688" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F688" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="21"/>
+      <c r="B693" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C693" s="23"/>
+      <c r="D693" s="21"/>
+      <c r="E693" s="24"/>
+      <c r="F693" s="25"/>
+    </row>
+    <row r="694" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B694" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C694" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D694" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E694" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F694" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B695" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C695" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D695" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E695" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F695" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B696" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C696" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D696" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E696" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F696" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B697" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C697" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D697" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E697" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F697" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B698" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C698" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D698" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E698" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F698" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B699" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C699" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D699" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F699" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B700" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C700" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D700" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E700" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F700" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B701" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C701" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D701" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F701" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B702" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C702" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D702" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E702" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F702" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B703" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C703" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D703" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E703" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F703" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B704" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C704" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D704" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E704" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F704" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B705" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C705" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D705" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E705" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F705" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B706" s="10">
+        <v>42683</v>
+      </c>
+      <c r="C706" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D706" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E706" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F706" s="19" t="s">
         <v>205</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="280">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1392,10 +1392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F706"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A701" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F713" sqref="F713"/>
+      <selection activeCell="F718" sqref="F718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11352,6 +11352,116 @@
       </c>
       <c r="F706" s="19" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="21"/>
+      <c r="B710" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C710" s="23"/>
+      <c r="D710" s="21"/>
+      <c r="E710" s="24"/>
+      <c r="F710" s="25"/>
+    </row>
+    <row r="711" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A711" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B711" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C711" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D711" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E711" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F711" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B712" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C712" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D712" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E712" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F712" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B713" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C713" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D713" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E713" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F713" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B714" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C714" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D714" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E714" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F714" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B715" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D715" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F715" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="280">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1392,10 +1392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F715"/>
+  <dimension ref="A1:F720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A701" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F718" sqref="F718"/>
+    <sheetView tabSelected="1" topLeftCell="A713" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F724" sqref="F724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11464,6 +11464,36 @@
         <v>240</v>
       </c>
     </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="21"/>
+      <c r="B719" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C719" s="23"/>
+      <c r="D719" s="21"/>
+      <c r="E719" s="24"/>
+      <c r="F719" s="25"/>
+    </row>
+    <row r="720" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A720" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B720" s="10">
+        <v>42685</v>
+      </c>
+      <c r="C720" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D720" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E720" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F720" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -11471,11 +11501,11 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>Building</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>Task_type</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="293">
   <si>
     <t>Staff Name</t>
   </si>
@@ -862,6 +862,45 @@
   </si>
   <si>
     <t>Press "MUTE" button on wireless mics to turn on mics.</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Pick up DLP big screen TV with PC on cart and WIRELESS KEYBOARD. Return equipment to CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>Set up Lecturn mic and small PA speaker in room. Prof lost their voice. Get equipment from Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic and cable and clip and stand. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Set up small speaker - plug lecturn mic into back of speaker.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and Projector carts, all matts and cables and return equipment to Bethune 201 storeroom. We do not have a key for this room so be on time.</t>
+  </si>
+  <si>
+    <t>Meet client and log into PC and turn on projector at 6:30 pm. EQUIPMENT IS IN ROOM ALREADY. Presentation is at 7:00 pm but client said he would meet you at 6:30 pm at Lumbers 306. Show client how to turn off projector by pressing "standby" twice just incase they run late. Make sure client locks room when done as the equipment stays in room.</t>
+  </si>
+  <si>
+    <t>Check to see if client is done with equipment. Turn off PC and projector. EQUIPMENT STAYS IN ROOM. Make sure client locks room when done. If they are still going at 9:00 pm then they will turn off projector and lock room.</t>
+  </si>
+  <si>
+    <t>Pick up wireless neck mic and receiver and lecturn mic and stand and cart. Pick up all matts and extension cords and return to Bethune 201 storeroom. Key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up small PA with cart and matts and Ac cords and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>Demo volume controls on mixer for Lecturn mic and neck mic. EQUIPMENT IS IN ROOM ALREADY.</t>
   </si>
 </sst>
 </file>
@@ -1392,10 +1431,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F720"/>
+  <dimension ref="A1:F793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F724" sqref="F724"/>
+    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F797" sqref="F797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10794,104 +10833,104 @@
         <v>261</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B670" s="10">
-        <v>42681</v>
+        <v>42685</v>
       </c>
       <c r="C670" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D670" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E670" s="11" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F670" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B671" s="10">
-        <v>42681</v>
+        <v>42685</v>
       </c>
       <c r="C671" s="12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D671" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E671" s="11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F671" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B672" s="10">
-        <v>42681</v>
+        <v>42685</v>
       </c>
       <c r="C672" s="12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D672" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E672" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F672" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B673" s="10">
-        <v>42681</v>
+        <v>42685</v>
       </c>
       <c r="C673" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D673" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E673" s="11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F673" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B674" s="10">
-        <v>42681</v>
+        <v>42685</v>
       </c>
       <c r="C674" s="12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D674" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E674" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F674" s="19" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -11194,177 +11233,197 @@
         <v>185</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B699" s="10">
         <v>42683</v>
       </c>
       <c r="C699" s="12" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="D699" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E699" s="11" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F699" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B700" s="10">
         <v>42683</v>
       </c>
       <c r="C700" s="12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D700" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E700" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F700" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B701" s="10">
         <v>42683</v>
       </c>
       <c r="C701" s="12" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D701" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E701" s="11" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F701" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B702" s="10">
         <v>42683</v>
       </c>
       <c r="C702" s="12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D702" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E702" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F702" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="703" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B703" s="10">
         <v>42683</v>
       </c>
       <c r="C703" s="12" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="D703" s="9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E703" s="11" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F703" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B704" s="10">
         <v>42683</v>
       </c>
       <c r="C704" s="12" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D704" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E704" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F704" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B705" s="10">
         <v>42683</v>
       </c>
       <c r="C705" s="12" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="D705" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E705" s="11" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F705" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B706" s="10">
         <v>42683</v>
       </c>
       <c r="C706" s="12" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D706" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E706" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F706" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="21"/>
-      <c r="B710" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="21"/>
+      <c r="B709" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C710" s="23"/>
-      <c r="D710" s="21"/>
-      <c r="E710" s="24"/>
-      <c r="F710" s="25"/>
-    </row>
-    <row r="711" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C709" s="23"/>
+      <c r="D709" s="21"/>
+      <c r="E709" s="24"/>
+      <c r="F709" s="25"/>
+    </row>
+    <row r="710" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A710" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B710" s="10">
+        <v>42684</v>
+      </c>
+      <c r="C710" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D710" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E710" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F710" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>80</v>
       </c>
@@ -11372,16 +11431,16 @@
         <v>42684</v>
       </c>
       <c r="C711" s="12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D711" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E711" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F711" s="19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -11392,13 +11451,13 @@
         <v>42684</v>
       </c>
       <c r="C712" s="12" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D712" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E712" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F712" s="19" t="s">
         <v>240</v>
@@ -11418,7 +11477,7 @@
         <v>26</v>
       </c>
       <c r="E713" s="11" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F713" s="19" t="s">
         <v>240</v>
@@ -11432,65 +11491,1175 @@
         <v>42684</v>
       </c>
       <c r="C714" s="12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D714" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E714" s="11" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F714" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A715" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B715" s="10">
-        <v>42684</v>
-      </c>
-      <c r="C715" s="12" t="s">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="21"/>
+      <c r="B718" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C718" s="23"/>
+      <c r="D718" s="21"/>
+      <c r="E718" s="24"/>
+      <c r="F718" s="25"/>
+    </row>
+    <row r="719" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A719" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B719" s="10">
+        <v>42685</v>
+      </c>
+      <c r="C719" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D715" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E715" s="11" t="s">
+      <c r="D719" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E719" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F719" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="26"/>
+      <c r="B723" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C723" s="28"/>
+      <c r="D723" s="26"/>
+      <c r="E723" s="29"/>
+      <c r="F723" s="30"/>
+    </row>
+    <row r="724" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A724" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B724" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C724" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D724" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E724" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F724" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A725" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B725" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D725" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E725" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F725" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B726" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C726" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D726" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E726" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F726" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A727" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B727" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D727" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E727" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F727" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A728" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B728" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D728" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E728" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F728" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A729" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B729" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D729" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E729" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F729" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B730" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C730" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D730" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E730" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F730" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A731" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B731" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D731" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E731" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F731" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B732" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C732" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D732" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E732" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F732" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B733" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D733" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E733" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F733" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B734" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C734" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D734" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E734" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F734" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B735" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C735" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D735" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F735" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B736" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C736" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D736" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E736" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F736" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B737" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C737" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D737" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E737" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F715" s="19" t="s">
+      <c r="F737" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A719" s="21"/>
-      <c r="B719" s="22" t="s">
+    <row r="738" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A738" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B738" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C738" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D738" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E738" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F738" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A739" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B739" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C739" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D739" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E739" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F739" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A740" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B740" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C740" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D740" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E740" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F740" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A741" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B741" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C741" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D741" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E741" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F741" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A742" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B742" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C742" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D742" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E742" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F742" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B743" s="10">
+        <v>42688</v>
+      </c>
+      <c r="C743" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D743" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E743" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F743" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="21"/>
+      <c r="B747" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C747" s="23"/>
+      <c r="D747" s="21"/>
+      <c r="E747" s="24"/>
+      <c r="F747" s="25"/>
+    </row>
+    <row r="748" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A748" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B748" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C748" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D748" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E748" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F748" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B749" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C749" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D749" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E749" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F749" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A750" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B750" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C750" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D750" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E750" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F750" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A751" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B751" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C751" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D751" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E751" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F751" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B752" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C752" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D752" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E752" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F752" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B753" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C753" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D753" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E753" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F753" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B754" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C754" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D754" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E754" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F754" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="21"/>
+      <c r="B758" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C758" s="23"/>
+      <c r="D758" s="21"/>
+      <c r="E758" s="24"/>
+      <c r="F758" s="25"/>
+    </row>
+    <row r="759" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A759" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B759" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C759" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D759" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E759" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F759" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A760" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B760" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C760" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D760" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E760" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F760" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A761" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B761" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C761" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D761" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E761" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F761" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B762" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C762" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D762" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E762" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F762" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A763" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B763" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C763" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D763" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E763" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F763" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A764" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B764" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C764" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D764" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E764" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F764" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B765" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C765" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D765" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E765" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F765" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B766" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C766" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D766" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E766" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F766" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B767" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C767" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D767" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E767" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F767" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A768" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B768" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C768" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D768" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E768" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F768" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A769" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B769" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C769" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D769" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E769" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F769" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A770" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B770" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C770" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D770" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E770" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F770" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A771" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B771" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C771" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D771" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E771" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F771" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A772" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B772" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C772" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D772" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E772" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F772" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A773" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B773" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C773" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D773" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E773" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F773" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A774" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B774" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C774" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D774" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E774" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F774" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B775" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C775" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D775" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E775" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F775" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A776" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B776" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C776" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D776" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E776" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F776" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A777" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B777" s="10">
+        <v>42690</v>
+      </c>
+      <c r="C777" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D777" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E777" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F777" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="21"/>
+      <c r="B781" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C781" s="23"/>
+      <c r="D781" s="21"/>
+      <c r="E781" s="24"/>
+      <c r="F781" s="25"/>
+    </row>
+    <row r="782" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A782" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B782" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C782" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D782" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E782" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F782" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B783" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C783" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D783" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E783" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F783" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B784" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C784" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D784" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E784" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F784" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B785" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C785" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D785" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F785" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B786" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C786" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D786" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E786" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F786" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A787" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B787" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C787" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D787" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E787" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F787" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B788" s="10">
+        <v>42691</v>
+      </c>
+      <c r="C788" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D788" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E788" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F788" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="21"/>
+      <c r="B792" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C719" s="23"/>
-      <c r="D719" s="21"/>
-      <c r="E719" s="24"/>
-      <c r="F719" s="25"/>
-    </row>
-    <row r="720" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A720" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B720" s="10">
-        <v>42685</v>
-      </c>
-      <c r="C720" s="12" t="s">
+      <c r="C792" s="23"/>
+      <c r="D792" s="21"/>
+      <c r="E792" s="24"/>
+      <c r="F792" s="25"/>
+    </row>
+    <row r="793" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A793" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B793" s="10">
+        <v>42692</v>
+      </c>
+      <c r="C793" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D720" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E720" s="11" t="s">
+      <c r="D793" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E793" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F720" s="19" t="s">
+      <c r="F793" s="19" t="s">
         <v>261</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="299">
   <si>
     <t>Staff Name</t>
   </si>
@@ -901,6 +901,24 @@
   </si>
   <si>
     <t>Demo volume controls on mixer for Lecturn mic and neck mic. EQUIPMENT IS IN ROOM ALREADY.</t>
+  </si>
+  <si>
+    <t>Demo PC and projector - EQUIPMENT ALREADY IN ROOM. Make sure client is happy.</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector carts with all matts and AC cords. Return equipment to Bethune 201 storeroom. We do not have a key for room so be on time.</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector carts with all matts and AC cords. Return equipment to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. We have a key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>LEAVE PORTABLE SCREEN IN ROOM.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, clip, stand and all mic cables and matts. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker with all AC cords and cart. Return to Bethune 201 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F793"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F797" sqref="F797"/>
+    <sheetView tabSelected="1" topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F823" sqref="F823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12661,6 +12679,346 @@
       </c>
       <c r="F793" s="19" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="21"/>
+      <c r="B797" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C797" s="23"/>
+      <c r="D797" s="21"/>
+      <c r="E797" s="24"/>
+      <c r="F797" s="25"/>
+    </row>
+    <row r="798" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A798" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B798" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C798" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D798" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E798" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F798" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B799" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C799" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D799" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E799" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F799" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B800" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C800" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D800" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E800" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F800" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B801" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C801" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D801" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E801" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F801" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B802" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C802" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D802" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E802" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F802" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B803" s="10">
+        <v>42695</v>
+      </c>
+      <c r="C803" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D803" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E803" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F803" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="21"/>
+      <c r="B808" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C808" s="23"/>
+      <c r="D808" s="21"/>
+      <c r="E808" s="24"/>
+      <c r="F808" s="25"/>
+    </row>
+    <row r="809" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A809" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B809" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C809" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D809" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E809" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F809" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B810" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C810" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D810" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E810" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F810" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A811" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B811" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C811" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D811" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E811" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F811" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B812" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C812" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D812" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E812" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F812" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A813" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B813" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C813" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D813" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E813" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F813" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A814" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B814" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C814" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D814" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E814" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F814" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A815" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B815" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C815" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D815" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E815" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F815" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B816" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C816" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D816" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E816" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F816" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B817" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C817" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D817" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E817" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F817" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B818" s="10">
+        <v>42696</v>
+      </c>
+      <c r="C818" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D818" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E818" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F818" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="301">
   <si>
     <t>Staff Name</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>Pick up small PA speaker with all AC cords and cart. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEAS BE ON TIME - GO EARLY - GUEST PROF ENDING EARLY TODAY ANYTIME FROM 18:20 - 18:30 pm. </t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F818"/>
+  <dimension ref="A1:F844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F823" sqref="F823"/>
+    <sheetView tabSelected="1" topLeftCell="A828" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F848" sqref="F848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13018,6 +13024,386 @@
         <v>133</v>
       </c>
       <c r="F818" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="21"/>
+      <c r="B822" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C822" s="23"/>
+      <c r="D822" s="21"/>
+      <c r="E822" s="24"/>
+      <c r="F822" s="25"/>
+    </row>
+    <row r="823" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A823" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B823" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C823" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D823" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E823" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F823" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A824" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B824" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C824" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E824" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F824" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A825" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B825" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C825" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D825" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E825" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F825" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B826" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C826" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D826" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E826" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F826" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A827" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B827" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C827" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D827" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E827" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F827" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A828" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B828" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C828" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D828" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E828" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F828" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B829" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C829" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E829" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F829" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B830" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C830" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E830" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F830" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B831" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C831" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E831" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F831" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A832" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B832" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C832" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D832" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E832" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F832" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A833" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B833" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C833" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E833" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F833" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A834" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B834" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C834" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E834" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F834" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A835" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B835" s="10">
+        <v>42697</v>
+      </c>
+      <c r="C835" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E835" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F835" s="34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="21"/>
+      <c r="B839" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C839" s="23"/>
+      <c r="D839" s="21"/>
+      <c r="E839" s="24"/>
+      <c r="F839" s="25"/>
+    </row>
+    <row r="840" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A840" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B840" s="10">
+        <v>42698</v>
+      </c>
+      <c r="C840" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E840" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F840" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B841" s="10">
+        <v>42698</v>
+      </c>
+      <c r="C841" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E841" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F841" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B842" s="10">
+        <v>42698</v>
+      </c>
+      <c r="C842" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E842" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F842" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B843" s="10">
+        <v>42698</v>
+      </c>
+      <c r="C843" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D843" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E843" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F843" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B844" s="10">
+        <v>42698</v>
+      </c>
+      <c r="C844" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E844" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F844" s="19" t="s">
         <v>240</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="302">
   <si>
     <t>Staff Name</t>
   </si>
@@ -925,12 +930,15 @@
   </si>
   <si>
     <t xml:space="preserve">PLEAS BE ON TIME - GO EARLY - GUEST PROF ENDING EARLY TODAY ANYTIME FROM 18:20 - 18:30 pm. </t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1161,6 +1169,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1208,7 +1219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,9 +1252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1276,6 +1304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1455,10 +1500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F844"/>
+  <dimension ref="A1:F859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A828" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F848" sqref="F848"/>
+    <sheetView tabSelected="1" topLeftCell="A854" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A859" sqref="A859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13405,6 +13450,276 @@
       </c>
       <c r="F844" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="21"/>
+      <c r="B846" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C846" s="23"/>
+      <c r="D846" s="21"/>
+      <c r="E846" s="24"/>
+      <c r="F846" s="25"/>
+    </row>
+    <row r="847" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A847" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B847" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C847" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D847" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E847" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F847" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A848" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B848" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C848" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D848" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E848" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F848" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A849" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B849" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C849" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D849" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E849" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F849" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B850" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C850" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E850" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F850" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A851" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B851" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C851" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D851" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E851" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F851" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A852" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B852" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C852" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D852" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E852" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F852" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B853" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C853" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D853" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E853" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F853" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B854" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C854" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D854" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E854" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F854" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B855" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C855" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D855" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E855" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F855" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A856" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B856" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C856" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D856" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E856" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F856" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A857" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B857" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C857" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D857" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E857" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F857" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A858" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B858" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C858" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D858" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E858" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F858" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A859" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B859" s="10">
+        <v>42699</v>
+      </c>
+      <c r="C859" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D859" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E859" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F859" s="34" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Jeannine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="301">
   <si>
     <t>Staff Name</t>
   </si>
@@ -930,15 +925,12 @@
   </si>
   <si>
     <t xml:space="preserve">PLEAS BE ON TIME - GO EARLY - GUEST PROF ENDING EARLY TODAY ANYTIME FROM 18:20 - 18:30 pm. </t>
-  </si>
-  <si>
-    <t>Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1169,9 +1161,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1219,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1252,26 +1241,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,23 +1276,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1500,10 +1455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F859"/>
+  <dimension ref="A1:F849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A854" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A859" sqref="A859"/>
+    <sheetView tabSelected="1" topLeftCell="A837" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F854" sqref="F854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13452,274 +13407,34 @@
         <v>240</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A846" s="21"/>
-      <c r="B846" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C846" s="23"/>
-      <c r="D846" s="21"/>
-      <c r="E846" s="24"/>
-      <c r="F846" s="25"/>
-    </row>
-    <row r="847" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A847" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B847" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C847" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D847" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E847" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F847" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="848" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A848" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B848" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C848" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D848" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E848" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F848" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="849" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="21"/>
+      <c r="B848" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C848" s="23"/>
+      <c r="D848" s="21"/>
+      <c r="E848" s="24"/>
+      <c r="F848" s="25"/>
+    </row>
+    <row r="849" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B849" s="10">
         <v>42699</v>
       </c>
       <c r="C849" s="12" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E849" s="11" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F849" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A850" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B850" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C850" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D850" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E850" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F850" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A851" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B851" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C851" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D851" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E851" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F851" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A852" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B852" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C852" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D852" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E852" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F852" s="19" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A853" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B853" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C853" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D853" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E853" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F853" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A854" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B854" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C854" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D854" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E854" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F854" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A855" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B855" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C855" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D855" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E855" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F855" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A856" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B856" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C856" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D856" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E856" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F856" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A857" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B857" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C857" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D857" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E857" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F857" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A858" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B858" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C858" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D858" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E858" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F858" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="859" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A859" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B859" s="10">
-        <v>42699</v>
-      </c>
-      <c r="C859" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D859" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E859" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F859" s="34" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="301">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1455,10 +1455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F849"/>
+  <dimension ref="A1:F870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A837" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F854" sqref="F854"/>
+    <sheetView tabSelected="1" topLeftCell="A860" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F875" sqref="F875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13435,6 +13435,316 @@
       </c>
       <c r="F849" s="19" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="21"/>
+      <c r="B855" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C855" s="23"/>
+      <c r="D855" s="21"/>
+      <c r="E855" s="24"/>
+      <c r="F855" s="25"/>
+    </row>
+    <row r="856" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A856" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B856" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C856" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D856" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E856" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F856" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A857" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B857" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C857" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D857" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E857" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F857" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A858" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B858" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C858" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D858" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E858" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F858" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B859" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C859" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D859" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E859" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F859" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A860" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B860" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C860" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D860" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E860" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F860" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A861" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B861" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C861" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D861" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E861" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F861" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B862" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C862" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D862" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E862" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F862" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B863" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C863" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D863" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E863" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F863" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B864" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C864" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D864" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E864" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F864" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B865" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C865" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D865" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E865" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F865" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B866" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C866" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D866" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E866" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F866" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A867" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B867" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C867" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D867" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E867" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F867" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A868" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B868" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C868" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D868" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E868" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F868" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A869" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B869" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C869" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D869" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E869" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F869" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A870" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B870" s="10">
+        <v>42702</v>
+      </c>
+      <c r="C870" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D870" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E870" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F870" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="308">
   <si>
     <t>Staff Name</t>
   </si>
@@ -925,6 +925,27 @@
   </si>
   <si>
     <t xml:space="preserve">PLEAS BE ON TIME - GO EARLY - GUEST PROF ENDING EARLY TODAY ANYTIME FROM 18:20 - 18:30 pm. </t>
+  </si>
+  <si>
+    <t>Please return neck mic to drawer and log off crestron.</t>
+  </si>
+  <si>
+    <t>Log off crestron.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on PC and Projector. Roll in PC cart and Projector already in room. Remote control for projector on PC cart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn off PC and projector. Leave remote control for projector on PC cart. LEAVE PC ROLL IN CART IN ROOM. Key for room in CB 121A storeroom. </t>
+  </si>
+  <si>
+    <t>Key for room on Bethune classroom keys in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Log off crestron and close rack drawer.</t>
+  </si>
+  <si>
+    <t>325</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F870"/>
+  <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F875" sqref="F875"/>
+    <sheetView tabSelected="1" topLeftCell="A925" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F946" sqref="F946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13745,6 +13766,1086 @@
       </c>
       <c r="F870" s="19" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" s="21"/>
+      <c r="B874" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C874" s="23"/>
+      <c r="D874" s="21"/>
+      <c r="E874" s="24"/>
+      <c r="F874" s="25"/>
+    </row>
+    <row r="875" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A875" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B875" s="10">
+        <v>42703</v>
+      </c>
+      <c r="C875" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D875" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E875" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F875" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B876" s="10">
+        <v>42703</v>
+      </c>
+      <c r="C876" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D876" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E876" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F876" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B877" s="10">
+        <v>42703</v>
+      </c>
+      <c r="C877" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D877" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E877" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F877" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B878" s="10">
+        <v>42703</v>
+      </c>
+      <c r="C878" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D878" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E878" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F878" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="21"/>
+      <c r="B883" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C883" s="23"/>
+      <c r="D883" s="21"/>
+      <c r="E883" s="24"/>
+      <c r="F883" s="25"/>
+    </row>
+    <row r="884" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A884" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B884" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C884" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D884" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E884" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F884" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A885" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B885" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C885" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D885" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E885" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F885" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A886" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B886" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C886" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D886" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E886" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F886" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B887" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C887" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D887" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E887" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F887" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A888" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B888" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C888" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D888" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E888" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F888" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A889" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B889" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C889" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D889" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E889" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F889" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B890" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C890" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D890" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E890" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F890" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B891" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C891" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D891" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E891" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F891" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B892" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C892" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D892" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E892" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F892" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A893" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B893" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C893" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D893" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E893" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F893" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A894" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B894" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C894" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D894" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E894" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F894" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A895" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B895" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C895" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D895" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E895" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F895" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A896" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B896" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C896" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D896" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E896" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F896" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" s="21"/>
+      <c r="B900" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C900" s="23"/>
+      <c r="D900" s="21"/>
+      <c r="E900" s="24"/>
+      <c r="F900" s="25"/>
+    </row>
+    <row r="901" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A901" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B901" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C901" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D901" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E901" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F901" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B902" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C902" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D902" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E902" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F902" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B903" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C903" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D903" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E903" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F903" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B904" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C904" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D904" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E904" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F904" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B905" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C905" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D905" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E905" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F905" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" s="21"/>
+      <c r="B909" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C909" s="23"/>
+      <c r="D909" s="21"/>
+      <c r="E909" s="24"/>
+      <c r="F909" s="25"/>
+    </row>
+    <row r="910" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A910" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B910" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C910" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D910" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E910" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F910" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A911" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B911" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C911" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E911" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F911" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B912" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C912" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D912" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E912" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F912" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A913" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B913" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C913" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D913" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E913" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F913" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B914" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C914" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D914" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E914" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F914" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B915" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C915" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D915" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E915" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F915" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="21"/>
+      <c r="B919" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C919" s="23"/>
+      <c r="D919" s="21"/>
+      <c r="E919" s="24"/>
+      <c r="F919" s="25"/>
+    </row>
+    <row r="920" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A920" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B920" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C920" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D920" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E920" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F920" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A921" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B921" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C921" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D921" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E921" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F921" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A922" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B922" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C922" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D922" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E922" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F922" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B923" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C923" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D923" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E923" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F923" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A924" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B924" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C924" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D924" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E924" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F924" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A925" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B925" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C925" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D925" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E925" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F925" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B926" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C926" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D926" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E926" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F926" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B927" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C927" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D927" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E927" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F927" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B928" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C928" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D928" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E928" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F928" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B929" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C929" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D929" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E929" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F929" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B930" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C930" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D930" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E930" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F930" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A931" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B931" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C931" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E931" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F931" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B932" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C932" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D932" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E932" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F932" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A933" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B933" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C933" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D933" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E933" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F933" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A934" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B934" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C934" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D934" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E934" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F934" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="21"/>
+      <c r="B938" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C938" s="23"/>
+      <c r="D938" s="21"/>
+      <c r="E938" s="24"/>
+      <c r="F938" s="25"/>
+    </row>
+    <row r="939" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A939" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B939" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C939" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D939" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E939" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F939" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B940" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C940" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D940" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E940" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F940" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A941" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B941" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C941" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D941" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E941" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F941" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B942" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C942" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D942" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E942" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F942" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B943" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C943" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D943" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E943" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F943" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B944" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C944" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D944" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E944" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F944" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B945" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C945" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E945" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F945" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B946" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C946" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D946" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E946" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F946" s="19" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="314">
   <si>
     <t>Staff Name</t>
   </si>
@@ -946,6 +946,24 @@
   </si>
   <si>
     <t>325</t>
+  </si>
+  <si>
+    <t>Demo volume for lecturn mic and speaker in Stong MDR. Key for room in CB 121A storeroom. Volume  control on back of speaker.</t>
+  </si>
+  <si>
+    <t>EQUIPMENT IN ROOM ALREADY. Lecturn mic and speaker are alreay set up. Just check on room in case they move the equipment around.</t>
+  </si>
+  <si>
+    <t>Log off touch screen and shut cabinet door.</t>
+  </si>
+  <si>
+    <t>Log off touch screen and shut rack drawer.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic and stand and cable.  Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up speaker and cart and matts and ac cords. Return to Bethune 201 storeroom. Key for room in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F946"/>
+  <dimension ref="A1:F956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F946" sqref="F946"/>
+    <sheetView tabSelected="1" topLeftCell="A934" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F960" sqref="F960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14846,6 +14864,136 @@
       </c>
       <c r="F946" s="19" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="21"/>
+      <c r="B950" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C950" s="23"/>
+      <c r="D950" s="21"/>
+      <c r="E950" s="24"/>
+      <c r="F950" s="25"/>
+    </row>
+    <row r="951" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A951" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B951" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C951" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D951" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E951" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F951" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A952" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B952" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C952" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D952" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E952" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F952" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B953" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C953" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D953" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E953" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F953" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B954" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C954" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D954" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E954" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F954" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A955" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B955" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C955" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D955" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E955" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F955" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A956" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B956" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C956" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D956" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E956" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F956" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="317">
   <si>
     <t>Staff Name</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>Pick up speaker and cart and matts and ac cords. Return to Bethune 201 storeroom. Key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Log off touchscreen and make sure keyboard goes back to drawer.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Log off touchscreen and make sure neck mic goes back to drawer.</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F956"/>
+  <dimension ref="A1:F966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A934" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F960" sqref="F960"/>
+    <sheetView tabSelected="1" topLeftCell="A946" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F970" sqref="F970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14994,6 +15003,136 @@
       </c>
       <c r="F956" s="19" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="21"/>
+      <c r="B960" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C960" s="23"/>
+      <c r="D960" s="21"/>
+      <c r="E960" s="24"/>
+      <c r="F960" s="25"/>
+    </row>
+    <row r="961" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A961" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B961" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C961" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D961" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E961" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F961" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A962" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B962" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C962" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D962" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E962" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F962" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A963" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B963" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C963" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D963" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E963" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F963" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A964" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B964" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C964" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D964" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E964" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F964" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B965" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C965" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D965" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E965" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F965" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B966" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C966" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D966" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E966" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F966" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="318">
   <si>
     <t>Staff Name</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>Log off touchscreen and make sure neck mic goes back to drawer.</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1196,6 +1199,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1503,10 +1509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F966"/>
+  <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A946" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F970" sqref="F970"/>
+    <sheetView tabSelected="1" topLeftCell="A964" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F985" sqref="F985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15133,6 +15139,173 @@
       </c>
       <c r="F966" s="19" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="21"/>
+      <c r="B971" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C971" s="23"/>
+      <c r="D971" s="21"/>
+      <c r="E971" s="24"/>
+      <c r="F971" s="25"/>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B972" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C972" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D972" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E972" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A973" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B973" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C973" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D973" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E973" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F973" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B974" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C974" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D974" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E974" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F974" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B975" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C975" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D975" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E975" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F975" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B976" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C976" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D976" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E976" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F976" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B977" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C977" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D977" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E977" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F977" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B978" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C978" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D978" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E978" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F978" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B979" s="10">
+        <v>42740</v>
+      </c>
+      <c r="C979" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D979" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E979" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F979" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="319">
   <si>
     <t>Staff Name</t>
   </si>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t>2050</t>
+  </si>
+  <si>
+    <t>Make sure neck mic goes back to drawer and log off.</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F979"/>
+  <dimension ref="A1:F986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A964" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F985" sqref="F985"/>
+      <selection activeCell="A986" sqref="A986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15306,6 +15309,76 @@
       </c>
       <c r="F979" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="21"/>
+      <c r="B983" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C983" s="23"/>
+      <c r="D983" s="21"/>
+      <c r="E983" s="24"/>
+      <c r="F983" s="25"/>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B984" s="10">
+        <v>42741</v>
+      </c>
+      <c r="C984" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D984" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E984" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F984" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B985" s="10">
+        <v>42741</v>
+      </c>
+      <c r="C985" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D985" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E985" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F985" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B986" s="10">
+        <v>42741</v>
+      </c>
+      <c r="C986" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D986" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E986" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F986" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3559" uniqueCount="321">
   <si>
     <t>Staff Name</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>Make sure neck mic goes back to drawer and log off.</t>
+  </si>
+  <si>
+    <t>Make sure client is okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo and show prof how to log off and return mic, cables, etc. to drawer. </t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F986"/>
+  <dimension ref="A1:F1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A986" sqref="A986"/>
+    <sheetView tabSelected="1" topLeftCell="A996" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1011" sqref="A1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15379,6 +15385,416 @@
       </c>
       <c r="F986" s="19" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" s="21"/>
+      <c r="B991" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C991" s="23"/>
+      <c r="D991" s="21"/>
+      <c r="E991" s="24"/>
+      <c r="F991" s="25"/>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B992" s="31">
+        <v>42744</v>
+      </c>
+      <c r="C992" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D992" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E992" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F992" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B993" s="31">
+        <v>42744</v>
+      </c>
+      <c r="C993" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D993" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E993" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F993" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A994" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B994" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C994" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D994" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E994" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F994" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A995" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B995" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C995" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D995" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E995" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F995" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A996" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B996" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C996" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D996" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E996" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F996" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B997" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C997" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D997" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E997" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F997" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A998" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B998" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C998" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D998" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E998" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F998" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B999" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C999" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D999" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E999" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F999" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1000" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1000" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1000" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1000" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1000" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1000" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1001" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1001" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1001" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1001" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1001" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1001" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1002" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1002" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1002" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1002" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1002" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1003" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1003" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1003" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1003" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1003" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1004" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1004" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1004" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1004" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1004" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1005" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1005" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1005" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1005" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1005" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1006" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1006" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1006" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1006" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1006" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1007" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1007" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1007" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1007" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1007" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1007" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1008" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1008" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1008" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1008" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1008" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1008" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1009" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1009" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1009" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1009" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1009" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1009" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1010" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1010" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1010" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1010" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1010" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1010" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1011" s="10">
+        <v>42744</v>
+      </c>
+      <c r="C1011" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1011" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1011" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1011" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3559" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="331">
   <si>
     <t>Staff Name</t>
   </si>
@@ -985,6 +985,59 @@
   </si>
   <si>
     <t xml:space="preserve">Demo and show prof how to log off and return mic, cables, etc. to drawer. </t>
+  </si>
+  <si>
+    <t>Pick up PC cart and projector cart with all matts and cables. Return to Bethune 201 storeroom. Be on time as we do not have a key for room.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC and Projector </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ALREADY IN ROOM. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Just demo equipment to client.</t>
+    </r>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>Make sure PC and Projector get locked in room for next class. Make sure room is locked, we do not have a key.</t>
+  </si>
+  <si>
+    <t>Turn off PC and Projector - projector remote on PC cart. EQUIPMENT STAYS IN ROOM. Lock equipment in room. Key for room in CB 121A storeroom on Bethune classroom keys.</t>
+  </si>
+  <si>
+    <t>Demo built in PC and make sure prof is happy.</t>
+  </si>
+  <si>
+    <t>Built in PC not working - please pick up roll in PC cart from room and bring to Lassonde 1011 storeroom. Keep VGA and sound cable in drawer in CLH K.</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>Demo equipent to prof. Make sure prof is happy before leaving.</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1011"/>
+  <dimension ref="A1:F1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A996" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1011" sqref="A1011"/>
+    <sheetView tabSelected="1" topLeftCell="A1088" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1110" sqref="F1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15794,6 +15847,1446 @@
         <v>138</v>
       </c>
       <c r="F1011" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" s="21"/>
+      <c r="B1015" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1015" s="23"/>
+      <c r="D1015" s="21"/>
+      <c r="E1015" s="24"/>
+      <c r="F1015" s="25"/>
+    </row>
+    <row r="1016" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1016" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1016" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1016" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1016" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1016" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1016" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1017" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1017" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1017" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1017" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1017" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1018" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1018" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1018" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1018" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1018" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1019" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1019" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1019" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1019" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1019" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1020" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1020" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1020" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1020" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1020" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1021" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1021" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1021" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1021" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1021" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1022" s="10">
+        <v>42745</v>
+      </c>
+      <c r="C1022" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1022" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1022" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1022" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" s="21"/>
+      <c r="B1026" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1026" s="23"/>
+      <c r="D1026" s="21"/>
+      <c r="E1026" s="24"/>
+      <c r="F1026" s="25"/>
+    </row>
+    <row r="1027" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1027" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1027" s="31">
+        <v>42746</v>
+      </c>
+      <c r="C1027" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1027" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1027" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1027" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1028" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1028" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1028" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1028" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1028" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1028" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1029" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1029" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1029" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1029" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1029" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1029" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1030" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1030" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1030" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1030" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1030" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1030" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1031" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1031" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1031" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1031" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1031" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1032" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1032" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1032" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1032" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1032" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1032" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1033" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1033" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1033" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1033" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1033" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1034" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1034" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1034" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1034" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1034" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1034" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1035" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1035" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1035" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1035" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1035" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1036" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1036" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1036" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1036" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1036" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1036" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1037" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1037" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1037" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1037" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1037" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1038" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1038" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1038" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1038" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1038" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1039" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1039" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1039" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1039" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1039" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1040" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1040" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1040" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1040" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1040" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1041" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1041" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1041" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1041" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1041" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1042" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1042" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1042" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1042" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1042" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1042" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1043" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1043" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1043" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1043" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1043" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1043" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1044" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1044" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1044" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1044" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1044" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1044" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1045" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1045" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1045" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1045" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1045" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1045" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1046" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1046" s="10">
+        <v>42746</v>
+      </c>
+      <c r="C1046" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1046" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1046" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1046" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" s="21"/>
+      <c r="B1050" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1050" s="23"/>
+      <c r="D1050" s="21"/>
+      <c r="E1050" s="24"/>
+      <c r="F1050" s="25"/>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1051" s="31">
+        <v>42747</v>
+      </c>
+      <c r="C1051" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1051" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1051" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1051" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1052" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1052" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1052" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1052" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1052" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1052" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1053" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1053" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1053" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1053" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1053" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1053" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1054" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1054" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1054" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1054" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1054" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1055" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1055" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1055" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1055" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1055" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1056" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1056" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1056" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1056" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1056" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1057" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1057" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1057" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1057" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1057" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1058" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1058" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1058" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1058" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1058" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1059" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1059" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1059" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1059" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1059" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1060" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1060" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1060" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1060" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1060" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1061" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1061" s="10">
+        <v>42747</v>
+      </c>
+      <c r="C1061" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1061" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1061" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1061" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" s="21"/>
+      <c r="B1065" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1065" s="23"/>
+      <c r="D1065" s="21"/>
+      <c r="E1065" s="24"/>
+      <c r="F1065" s="25"/>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1066" s="10">
+        <v>42748</v>
+      </c>
+      <c r="C1066" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1066" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1066" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1066" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1067" s="10">
+        <v>42748</v>
+      </c>
+      <c r="C1067" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1067" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1067" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1067" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1068" s="10">
+        <v>42748</v>
+      </c>
+      <c r="C1068" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1068" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1068" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1068" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1069" s="10">
+        <v>42748</v>
+      </c>
+      <c r="C1069" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1069" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1069" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1069" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1070" s="10">
+        <v>42748</v>
+      </c>
+      <c r="C1070" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1070" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1070" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1070" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" s="21"/>
+      <c r="B1075" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1075" s="23"/>
+      <c r="D1075" s="21"/>
+      <c r="E1075" s="24"/>
+      <c r="F1075" s="25"/>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1076" s="31">
+        <v>42751</v>
+      </c>
+      <c r="C1076" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1076" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1076" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1076" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1077" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1077" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1077" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1077" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1077" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1077" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1078" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1078" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1078" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1078" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1078" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1078" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1079" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1079" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1079" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1079" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1079" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1079" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1080" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1080" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1080" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1080" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1080" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1081" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1081" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1081" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1081" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1081" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1081" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1082" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1082" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1082" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1082" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1082" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1082" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1083" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1083" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1083" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1083" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1083" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1084" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1084" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1084" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1084" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1084" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1085" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1085" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1085" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1085" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1085" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1086" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1086" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1086" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1086" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1086" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1087" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1087" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1087" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1087" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1087" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1088" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1088" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1088" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1088" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1088" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1088" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1089" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1089" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1089" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1089" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1089" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1089" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1090" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1090" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1090" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1090" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1090" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1090" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1091" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1091" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1091" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1091" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1091" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1091" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1092" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1092" s="10">
+        <v>42751</v>
+      </c>
+      <c r="C1092" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1092" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1092" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1092" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" s="21"/>
+      <c r="B1097" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1097" s="23"/>
+      <c r="D1097" s="21"/>
+      <c r="E1097" s="24"/>
+      <c r="F1097" s="25"/>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1098" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1098" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1098" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1098" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1098" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1099" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1099" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1099" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1099" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1099" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1099" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1100" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1100" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1100" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1100" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1100" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1101" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1101" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1101" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1101" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1102" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1102" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1102" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1102" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1102" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1103" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1103" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1103" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1103" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1104" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1104" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1104" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1104" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1105" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1105" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1105" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1105" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1105" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1105" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1106" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1106" s="10">
+        <v>42752</v>
+      </c>
+      <c r="C1106" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1106" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1106" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1106" s="19" t="s">
         <v>240</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="331">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1571,10 +1571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1106"/>
+  <dimension ref="A1:F1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1088" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1110" sqref="F1110"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1155" sqref="F1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17287,6 +17287,696 @@
         <v>136</v>
       </c>
       <c r="F1106" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1110" s="21"/>
+      <c r="B1110" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1110" s="23"/>
+      <c r="D1110" s="21"/>
+      <c r="E1110" s="24"/>
+      <c r="F1110" s="25"/>
+    </row>
+    <row r="1111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1111" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1111" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1111" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1111" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1111" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1111" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1112" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1112" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1112" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1112" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1112" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1113" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1113" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1113" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1113" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1113" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1113" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1114" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1114" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1114" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1114" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1114" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1115" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1115" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1115" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1115" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1115" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1115" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1116" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1116" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1116" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1116" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1116" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1116" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1117" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1117" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1117" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1117" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1117" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1117" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1118" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1118" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1118" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1118" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1118" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1118" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1119" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1119" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1119" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1119" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1119" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1120" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1120" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1120" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1120" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1120" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1120" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1121" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1121" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1121" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1121" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1121" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1122" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1122" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1122" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1122" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1122" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1123" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1123" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1123" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1123" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1124" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1124" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1124" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1124" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1124" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1125" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1125" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1125" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1125" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1126" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1126" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1126" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1126" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1126" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1126" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1127" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1127" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1127" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1127" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1127" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1128" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1128" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1128" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1128" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1128" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1128" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1129" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1129" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1129" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1129" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1129" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1130" s="10">
+        <v>42753</v>
+      </c>
+      <c r="C1130" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1130" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1130" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1130" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1134" s="21"/>
+      <c r="B1134" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1134" s="23"/>
+      <c r="D1134" s="21"/>
+      <c r="E1134" s="24"/>
+      <c r="F1134" s="25"/>
+    </row>
+    <row r="1135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1135" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1135" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1135" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1135" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1135" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1136" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1136" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1136" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1136" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1137" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1137" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1137" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1137" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1137" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1138" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1138" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1138" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1138" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1138" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1139" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1139" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1139" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1139" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1140" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1140" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1140" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1140" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1140" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1141" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1141" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1141" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1141" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1141" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1142" s="10">
+        <v>42754</v>
+      </c>
+      <c r="C1142" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1142" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1142" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1142" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1146" s="21"/>
+      <c r="B1146" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1146" s="23"/>
+      <c r="D1146" s="21"/>
+      <c r="E1146" s="24"/>
+      <c r="F1146" s="25"/>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1147" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1147" s="10">
+        <v>42755</v>
+      </c>
+      <c r="C1147" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1147" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1147" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1147" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1148" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1148" s="10">
+        <v>42755</v>
+      </c>
+      <c r="C1148" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1148" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1148" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1148" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1149" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1149" s="10">
+        <v>42755</v>
+      </c>
+      <c r="C1149" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1149" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1149" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1149" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1150" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1150" s="10">
+        <v>42755</v>
+      </c>
+      <c r="C1150" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1150" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1150" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1150" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1151" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1151" s="10">
+        <v>42755</v>
+      </c>
+      <c r="C1151" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1151" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1151" s="19" t="s">
         <v>240</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="346">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1038,6 +1038,51 @@
   </si>
   <si>
     <t>Demo equipent to prof. Make sure prof is happy before leaving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please demo equipment to Prof. Chaufan. Make absolutely sure prof is happy. Please have best person do this as there could be problems. </t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Make sure prof is okay. Built in PC can not be turned off or else it doesn't come on again. We left a note to this effect in the room by the touchscreen. Prof just needs to log off instead of shutting down to change passport york account profile. If for some reason built in PC gets shut down and won't turn on again there is a roll in PC cart in CB 111 storeroom. It is wired for network with a wireless network card. If you use roll in PC cart please tell Masi to pick it up at 7:00 pm and put back in CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart from CB 115 and return to CB 111 storeroom. Check with Masi to see if it was actually used at 5:30 pm class.</t>
+  </si>
+  <si>
+    <t>2 desk mics with mixer will be already set up - just demo volume controls on mixer to client.</t>
+  </si>
+  <si>
+    <t>Pick up 2 desk mics, stands, 5 mic cables and mixer - return to Lassonde 1011 storeroom (in front of Lassonde A classroom).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please assist prof to get audio from PC. YOU NEED TO TURN ON THE PC FROM THE POWER BUTTON ON PC TO GET AUDIO. JUST LOGGING OFF AND LOGGING ON AGAIN WILL NOT LOAD AUDIO DRIVERS. Please make sure prof is okay…he has had problems in the past. </t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart from CB 115 and return to CB 111 storeroom. Check with Masi to see if we actually used it at 4:30 pm class.</t>
+  </si>
+  <si>
+    <t>Make sure prof is okay. Built in PC can not be turned off or else it doesn't come on again. We left a note to this effect in the room by the touchscreen. Prof just needs to log off instead of shutting down to change passport york account profile. If for some reason built in PC gets shut down and won't turn on again there is a roll in PC cart in CB 111 storeroom. It is wired for network with a wireless network card. If you use roll in PC cart please tell Masi to pick it up at 6:00 pm and put back in CB 111 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart from CB 115 and return to CB 111 storeroom. Check with Masi to see if we actually used it at 5:30 pm class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo volume for Lecturn Mic (volume control on small PA) already in room. Tell client to lock door when done. </t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic, stand, cable and matts. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up small PA and cart and power cords and matts. Return to Bethune 201 storeroom. We have a key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart with all cables and matts. Turn off projector with projector remote on PC cart. Return PC cart, cables, matt and projector remote to Bethune 201 storeroom. Be very carefull of pulling out cables from bulkhead. Key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please check if prof needs audio from PC. If they do need audio, you need to turn on the PC from the power button on the PC to get audio. Just logging off and logging on again will not load audio drivers. </t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1616,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1151"/>
+  <dimension ref="A1:F1276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1155" sqref="F1155"/>
+    <sheetView tabSelected="1" topLeftCell="A1266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1280" sqref="F1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16901,114 +16946,104 @@
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1083" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1083" s="10">
+      <c r="A1083" s="21"/>
+      <c r="B1083" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1083" s="23"/>
+      <c r="D1083" s="21"/>
+      <c r="E1083" s="24"/>
+      <c r="F1083" s="25"/>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1084" s="31">
         <v>42751</v>
       </c>
-      <c r="C1083" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1083" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1083" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1083" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1084" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1084" s="10">
-        <v>42751</v>
-      </c>
       <c r="C1084" s="12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D1084" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1084" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1084" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E1084" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1084" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1085" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1085" s="10">
         <v>42751</v>
       </c>
       <c r="C1085" s="12" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D1085" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1085" s="11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F1085" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1086" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B1086" s="10">
         <v>42751</v>
       </c>
       <c r="C1086" s="12" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="D1086" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1086" s="11" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F1086" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1087" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B1087" s="10">
         <v>42751</v>
       </c>
       <c r="C1087" s="12" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="D1087" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1087" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1087" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B1088" s="10">
         <v>42751</v>
       </c>
       <c r="C1088" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1088" s="9" t="s">
         <v>50</v>
@@ -17017,10 +17052,10 @@
         <v>136</v>
       </c>
       <c r="F1088" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A1089" s="3" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17063,7 @@
         <v>42751</v>
       </c>
       <c r="C1089" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1089" s="9" t="s">
         <v>50</v>
@@ -17037,7 +17072,7 @@
         <v>136</v>
       </c>
       <c r="F1089" s="19" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1090" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17978,6 +18013,1956 @@
       </c>
       <c r="F1151" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1156" s="21"/>
+      <c r="B1156" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1156" s="23"/>
+      <c r="D1156" s="21"/>
+      <c r="E1156" s="24"/>
+      <c r="F1156" s="25"/>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1157" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1157" s="31">
+        <v>42758</v>
+      </c>
+      <c r="C1157" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1157" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1157" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1157" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1158" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1158" s="31">
+        <v>42758</v>
+      </c>
+      <c r="C1158" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1158" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1158" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1158" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1159" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1159" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1159" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1159" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1159" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1159" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1160" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1160" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1160" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1160" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1160" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1161" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1161" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1161" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1161" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1161" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1162" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1162" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1162" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1162" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1162" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1163" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1163" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1163" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1163" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1163" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1164" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1164" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1164" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1164" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1164" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1164" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1165" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1165" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1165" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1165" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1165" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1166" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1166" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1166" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1166" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1166" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1166" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1167" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1167" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1167" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1167" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1167" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1168" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1168" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1168" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1168" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1168" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1168" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1169" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1169" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1169" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1169" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1169" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1169" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1170" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1170" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1170" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1170" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1170" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1171" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1171" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1171" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1171" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1171" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1172" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1172" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1172" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1172" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1172" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1173" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1173" s="10">
+        <v>42758</v>
+      </c>
+      <c r="C1173" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1173" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1173" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1173" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1177" s="21"/>
+      <c r="B1177" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1177" s="23"/>
+      <c r="D1177" s="21"/>
+      <c r="E1177" s="24"/>
+      <c r="F1177" s="25"/>
+    </row>
+    <row r="1178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1178" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1178" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1178" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1178" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1178" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1178" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1179" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1179" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1179" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1179" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1179" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1179" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1180" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1180" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1180" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1180" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1180" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1180" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1181" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1181" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1181" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1181" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1181" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1181" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1182" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1182" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1182" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1182" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1182" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1182" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1183" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1183" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1183" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1183" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1183" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1184" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1184" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1184" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1184" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1184" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1184" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1185" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1185" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1185" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1185" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1185" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1185" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1186" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1186" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1186" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1186" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1186" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1187" s="10">
+        <v>42759</v>
+      </c>
+      <c r="C1187" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1187" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1187" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1187" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1191" s="21"/>
+      <c r="B1191" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1191" s="23"/>
+      <c r="D1191" s="21"/>
+      <c r="E1191" s="24"/>
+      <c r="F1191" s="25"/>
+    </row>
+    <row r="1192" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1192" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1192" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1192" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1192" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1192" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1192" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1193" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1193" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1193" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1193" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1193" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1194" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1194" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1194" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1194" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1194" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1194" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1195" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1195" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1195" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1195" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1195" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1196" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1196" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1196" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1196" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1196" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1196" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1197" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1197" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1197" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1197" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1197" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1198" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1198" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1198" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1198" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1198" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1198" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1199" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1199" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1199" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1199" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1199" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1200" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1200" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1200" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1200" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1200" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1201" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1201" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1201" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1201" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1201" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1202" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1202" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1202" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1202" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1203" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1203" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1203" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1203" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1203" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1203" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1204" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1204" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1204" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1204" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1204" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1205" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1205" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1205" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1205" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1205" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1206" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1206" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1206" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1206" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1206" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1207" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1207" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1207" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1207" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1207" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1207" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1208" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1208" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1208" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1208" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1208" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1209" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1209" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1209" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1209" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1209" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1209" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1210" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1210" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1210" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1210" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1210" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1211" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1211" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1211" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1211" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1211" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1212" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C1212" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1212" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1212" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1212" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1216" s="21"/>
+      <c r="B1216" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1216" s="23"/>
+      <c r="D1216" s="21"/>
+      <c r="E1216" s="24"/>
+      <c r="F1216" s="25"/>
+    </row>
+    <row r="1217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1217" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1217" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1217" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1217" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1217" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1218" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1218" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1218" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1218" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1218" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1219" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1219" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1219" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1219" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1219" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1220" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1220" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1220" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1220" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1220" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1221" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1221" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1221" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1221" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1221" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1222" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1222" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1222" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1222" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1222" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1223" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1223" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1223" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1223" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1223" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1224" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1224" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1224" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1224" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1224" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1225" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1225" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1225" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1225" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1225" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1226" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1226" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1226" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1226" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1226" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1227" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1227" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1227" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1227" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1227" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1228" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1228" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1228" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1228" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1228" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1229" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1229" s="10">
+        <v>42761</v>
+      </c>
+      <c r="C1229" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1229" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1229" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1229" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1234" s="21"/>
+      <c r="B1234" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1234" s="23"/>
+      <c r="D1234" s="21"/>
+      <c r="E1234" s="24"/>
+      <c r="F1234" s="25"/>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1235" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1235" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1235" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1235" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1235" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1235" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1236" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1236" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1236" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1236" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1236" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1237" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1237" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1237" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1237" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1237" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1238" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1238" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1238" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1238" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1238" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1239" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1239" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1239" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1239" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1239" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1240" s="10">
+        <v>42762</v>
+      </c>
+      <c r="C1240" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1240" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1240" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1240" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1245" s="21"/>
+      <c r="B1245" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1245" s="23"/>
+      <c r="D1245" s="21"/>
+      <c r="E1245" s="24"/>
+      <c r="F1245" s="25"/>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1246" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1246" s="31">
+        <v>42765</v>
+      </c>
+      <c r="C1246" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1246" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1246" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1246" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1247" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1247" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1247" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1247" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1247" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1247" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1248" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1248" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1248" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1248" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1248" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1249" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1249" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1249" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1249" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1249" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1250" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1250" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1250" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1250" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1250" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1251" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1251" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1251" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1251" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1251" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1252" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1252" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1252" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1252" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1252" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1252" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1253" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1253" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1253" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1253" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1253" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1253" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1254" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1254" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1254" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1254" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1254" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1255" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1255" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1255" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1255" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1255" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1255" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1256" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1256" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1256" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1256" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1256" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1256" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1257" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1257" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1257" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1257" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1257" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1257" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1258" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1258" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1258" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1258" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1258" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1259" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1259" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1259" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1259" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1259" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1260" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1260" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1260" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1260" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1260" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1261" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1261" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1261" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1261" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1261" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1261" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1262" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1262" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1262" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1262" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1262" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1263" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1263" s="10">
+        <v>42765</v>
+      </c>
+      <c r="C1263" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1263" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1263" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1263" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1267" s="21"/>
+      <c r="B1267" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1267" s="23"/>
+      <c r="D1267" s="21"/>
+      <c r="E1267" s="24"/>
+      <c r="F1267" s="25"/>
+    </row>
+    <row r="1268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1268" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1268" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1268" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1268" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1268" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1269" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1269" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1269" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1269" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1269" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1270" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1270" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1270" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1270" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1270" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1271" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1271" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1271" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1271" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1271" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1272" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1272" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1272" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1272" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1272" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1273" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1273" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1273" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1273" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1273" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1274" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1274" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1274" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1274" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1274" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1275" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1275" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1275" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1275" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1275" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1276" s="10">
+        <v>42766</v>
+      </c>
+      <c r="C1276" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1276" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1276" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1276" s="19" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="354">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1083,6 +1083,30 @@
   </si>
   <si>
     <t xml:space="preserve">Please check if prof needs audio from PC. If they do need audio, you need to turn on the PC from the power button on the PC to get audio. Just logging off and logging on again will not load audio drivers. </t>
+  </si>
+  <si>
+    <t>Make sure prof is okay.</t>
+  </si>
+  <si>
+    <t>Make sure prof is okay with the document camera - she has had problems in the past with it freezing. If the image freezes - unplug the power plug to the document camera and wait 20 seconds then plug power plug in again. Reassign document camera to projector B and reassign PC to projector A.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart and all cables (VGA, network cable, power plug). Pick up 2 matts also and return equipment to Bethune 201 storeroom. Turn off Projector in ceiling with remote that is on PC cart. Remote stays with PC cart and gets returned to Bethune 201 storeroom on PC cart. Lock room when done - we have a key in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera, USB extension and tripod. Return to Bethune 201 storeroom. We have a key for Stong MDR in CB 121A.</t>
+  </si>
+  <si>
+    <t>Make sure prof is okay - he had trouble turning on PC last Monday.</t>
+  </si>
+  <si>
+    <t>Pick up Projector from Stong Master's Dining Room. LEAVE PORTABLE SCREEN IN ROOM. We have a key for room in CB 121A storeroom. Pick up all matts, AC cords and projector and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up Projector in Stong Master's Dining Room. Prof bringing own PC laptop. PORTABLE SCREEN ALREADY IN ROOM. Get projector from Bethune 201 storeroom. We have a key for room in CB 121A storeroom. </t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and projector carts. Pick up all matts and cables and return all equipment to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. Key for room is in CB 121A storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1276"/>
+  <dimension ref="A1:F1553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1280" sqref="F1280"/>
+    <sheetView tabSelected="1" topLeftCell="A1547" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1557" sqref="F1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18766,114 +18790,104 @@
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1201" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1201" s="10">
-        <v>42760</v>
-      </c>
-      <c r="C1201" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1201" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1201" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1201" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1201" s="21"/>
+      <c r="B1201" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1201" s="23"/>
+      <c r="D1201" s="21"/>
+      <c r="E1201" s="24"/>
+      <c r="F1201" s="25"/>
+    </row>
+    <row r="1202" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1202" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1202" s="10">
         <v>42760</v>
       </c>
       <c r="C1202" s="12" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D1202" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1202" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1202" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1203" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1203" s="10">
         <v>42760</v>
       </c>
       <c r="C1203" s="12" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D1203" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1203" s="11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F1203" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1204" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1204" s="10">
         <v>42760</v>
       </c>
       <c r="C1204" s="12" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="D1204" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1204" s="11" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F1204" s="19" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1205" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1205" s="10">
         <v>42760</v>
       </c>
       <c r="C1205" s="12" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="D1205" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1205" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1205" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A1206" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1206" s="10">
         <v>42760</v>
       </c>
       <c r="C1206" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1206" s="9" t="s">
         <v>50</v>
@@ -18882,47 +18896,47 @@
         <v>136</v>
       </c>
       <c r="F1206" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1207" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B1207" s="10">
         <v>42760</v>
       </c>
       <c r="C1207" s="12" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D1207" s="9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E1207" s="11" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="F1207" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1208" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B1208" s="10">
         <v>42760</v>
       </c>
       <c r="C1208" s="12" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D1208" s="9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E1208" s="11" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F1208" s="19" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -19963,6 +19977,4156 @@
       </c>
       <c r="F1276" s="19" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1280" s="21"/>
+      <c r="B1280" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1280" s="23"/>
+      <c r="D1280" s="21"/>
+      <c r="E1280" s="24"/>
+      <c r="F1280" s="25"/>
+    </row>
+    <row r="1281" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1281" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1281" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1281" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1281" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1281" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1282" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1282" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1282" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1282" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1282" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1283" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1283" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1283" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1283" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1283" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1284" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1284" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1284" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1284" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1284" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1285" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1285" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1285" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1285" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1285" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1285" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1286" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1286" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1286" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1286" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1286" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1287" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1287" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1287" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1287" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1287" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1287" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1288" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1288" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1288" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1288" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1288" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1289" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1289" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1289" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1289" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1289" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1289" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1290" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1290" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1290" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1290" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1290" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1291" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1291" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1291" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1291" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1291" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1291" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1292" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1292" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1292" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1292" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1292" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1293" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1293" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1293" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1293" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1293" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1293" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1294" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1294" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1294" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1294" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1294" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1295" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1295" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1295" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1295" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1295" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1295" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1296" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1296" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1296" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1296" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1296" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1297" s="10">
+        <v>42767</v>
+      </c>
+      <c r="C1297" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1297" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1297" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1297" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1301" s="21"/>
+      <c r="B1301" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1301" s="23"/>
+      <c r="D1301" s="21"/>
+      <c r="E1301" s="24"/>
+      <c r="F1301" s="25"/>
+    </row>
+    <row r="1302" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1302" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1302" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1302" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1302" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1302" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1303" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1303" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1303" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1303" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1303" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1303" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1304" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1304" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1304" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1304" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1304" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1305" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1305" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1305" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1305" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1305" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1305" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1306" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1306" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1306" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1306" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1306" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1307" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1307" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1307" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1307" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1307" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1307" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1308" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1308" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1308" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1308" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1308" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1309" s="10">
+        <v>42768</v>
+      </c>
+      <c r="C1309" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1309" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1309" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1309" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1313" s="21"/>
+      <c r="B1313" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1313" s="23"/>
+      <c r="D1313" s="21"/>
+      <c r="E1313" s="24"/>
+      <c r="F1313" s="25"/>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1314" s="10">
+        <v>42769</v>
+      </c>
+      <c r="C1314" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1314" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1314" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1314" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1315" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1315" s="10">
+        <v>42769</v>
+      </c>
+      <c r="C1315" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1315" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1315" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1315" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1316" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1316" s="10">
+        <v>42769</v>
+      </c>
+      <c r="C1316" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1316" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1316" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1316" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1317" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1317" s="10">
+        <v>42769</v>
+      </c>
+      <c r="C1317" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1317" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1317" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1317" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1318" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1318" s="10">
+        <v>42769</v>
+      </c>
+      <c r="C1318" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1318" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1318" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1318" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1323" s="21"/>
+      <c r="B1323" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1323" s="23"/>
+      <c r="D1323" s="21"/>
+      <c r="E1323" s="24"/>
+      <c r="F1323" s="25"/>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1324" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1324" s="31">
+        <v>42772</v>
+      </c>
+      <c r="C1324" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1324" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1324" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1324" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1325" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1325" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1325" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1325" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1325" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1325" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1326" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1326" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1326" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1326" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1326" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1327" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1327" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1327" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1327" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1327" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1328" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1328" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1328" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1328" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1328" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1328" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1329" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1329" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1329" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1329" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1329" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1329" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1330" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1330" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1330" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1330" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1330" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1331" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1331" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1331" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1331" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1331" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1331" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1332" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1332" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1332" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1332" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1332" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1333" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1333" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1333" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1333" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1333" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1333" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1334" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1334" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1334" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1334" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1334" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1335" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1335" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1335" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1335" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1335" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1335" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1336" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1336" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1336" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1336" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1336" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1336" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1337" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1337" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1337" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1337" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1337" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1338" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1338" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1338" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1338" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1338" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1338" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1339" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1339" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1339" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1339" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1339" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1339" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1340" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1340" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1340" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1340" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1340" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1340" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1341" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1341" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1341" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1341" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1341" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1341" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1342" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1342" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1342" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1342" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1342" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1342" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1343" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1343" s="10">
+        <v>42772</v>
+      </c>
+      <c r="C1343" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1343" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1343" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1343" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1344" s="21"/>
+      <c r="B1344" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1344" s="23"/>
+      <c r="D1344" s="21"/>
+      <c r="E1344" s="24"/>
+      <c r="F1344" s="25"/>
+    </row>
+    <row r="1345" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1345" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1345" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1345" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1345" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1345" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1345" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1346" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1346" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1346" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1346" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1346" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1346" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1347" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1347" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1347" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1347" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1347" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1348" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1348" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1348" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1348" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1348" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1348" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1349" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1349" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1349" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1349" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1349" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1349" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1350" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1350" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1350" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1350" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1350" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1350" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1351" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1351" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1351" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1351" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1351" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1351" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1352" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1352" s="10">
+        <v>42773</v>
+      </c>
+      <c r="C1352" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1352" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1352" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1352" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1356" s="21"/>
+      <c r="B1356" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1356" s="23"/>
+      <c r="D1356" s="21"/>
+      <c r="E1356" s="24"/>
+      <c r="F1356" s="25"/>
+    </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1357" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1357" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1357" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1357" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1357" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1357" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1358" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1358" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1358" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1358" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1358" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1358" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1359" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1359" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1359" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1359" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1359" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1359" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1360" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1360" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1360" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1360" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1360" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1360" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1361" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1361" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1361" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1361" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1361" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1361" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1362" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1362" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C1362" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1362" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1362" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1362" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1366" s="21"/>
+      <c r="B1366" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1366" s="23"/>
+      <c r="D1366" s="21"/>
+      <c r="E1366" s="24"/>
+      <c r="F1366" s="25"/>
+    </row>
+    <row r="1367" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1367" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1367" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1367" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1367" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1367" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1367" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1368" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1368" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1368" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1368" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1368" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1368" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1369" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1369" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1369" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1369" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1369" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1369" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1370" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1370" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1370" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1370" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1370" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1370" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1371" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1371" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1371" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1371" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1371" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1371" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1372" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1372" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1372" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1372" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1372" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1372" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1373" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1373" s="10">
+        <v>42775</v>
+      </c>
+      <c r="C1373" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1373" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1373" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1373" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1378" s="21"/>
+      <c r="B1378" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1378" s="23"/>
+      <c r="D1378" s="21"/>
+      <c r="E1378" s="24"/>
+      <c r="F1378" s="25"/>
+    </row>
+    <row r="1379" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1379" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1379" s="31">
+        <v>42776</v>
+      </c>
+      <c r="C1379" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1379" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1379" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1379" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1380" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1380" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1380" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1380" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1380" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1380" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1381" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1381" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1381" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1381" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1381" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1382" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1382" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1382" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1382" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1382" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1383" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1383" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1383" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1383" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1383" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1384" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1384" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1384" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1384" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1384" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1384" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1385" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1385" s="10">
+        <v>42776</v>
+      </c>
+      <c r="C1385" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1385" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1385" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1385" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1389" s="21"/>
+      <c r="B1389" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1389" s="23"/>
+      <c r="D1389" s="21"/>
+      <c r="E1389" s="24"/>
+      <c r="F1389" s="25"/>
+    </row>
+    <row r="1390" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1390" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1390" s="31">
+        <v>42779</v>
+      </c>
+      <c r="C1390" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1390" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1390" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1390" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1391" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1391" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1391" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1391" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1391" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1391" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1392" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1392" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1392" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1392" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1392" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1392" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1393" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1393" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1393" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1393" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1393" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1393" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1394" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1394" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1394" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1394" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1394" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1394" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1395" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1395" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1395" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1395" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1395" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1395" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1396" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1396" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1396" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1396" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1396" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1396" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1397" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1397" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1397" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1397" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1397" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1397" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1398" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1398" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1398" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1398" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1398" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1398" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1399" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1399" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1399" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1399" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1399" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1399" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1400" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1400" s="10">
+        <v>42779</v>
+      </c>
+      <c r="C1400" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1400" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1400" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1400" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1404" s="21"/>
+      <c r="B1404" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1404" s="23"/>
+      <c r="D1404" s="21"/>
+      <c r="E1404" s="24"/>
+      <c r="F1404" s="25"/>
+    </row>
+    <row r="1405" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1405" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1405" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1405" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1405" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1405" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1405" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1406" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1406" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1406" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1406" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1406" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1406" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1407" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1407" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1407" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1407" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1407" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1407" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1408" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1408" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1408" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1408" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1408" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1408" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1409" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1409" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1409" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1409" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1409" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1409" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1410" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1410" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1410" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1410" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1410" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1410" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1411" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1411" s="10">
+        <v>42780</v>
+      </c>
+      <c r="C1411" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1411" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1411" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1411" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1416" s="21"/>
+      <c r="B1416" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1416" s="23"/>
+      <c r="D1416" s="21"/>
+      <c r="E1416" s="24"/>
+      <c r="F1416" s="25"/>
+    </row>
+    <row r="1417" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1417" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1417" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1417" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1417" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1417" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1417" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1418" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1418" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1418" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1418" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1418" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1419" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1419" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1419" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1419" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1419" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1420" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1420" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1420" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1420" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1420" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1421" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1421" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1421" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1421" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1421" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1422" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1422" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1422" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1422" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1422" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1422" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1423" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1423" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1423" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1423" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1423" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1423" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1424" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1424" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1424" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1424" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1424" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1424" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1425" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1425" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1425" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1425" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1425" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1426" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1426" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1426" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1426" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1426" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1426" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1427" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1427" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1427" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1427" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1427" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1428" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1428" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1428" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1428" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1428" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1429" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1429" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1429" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1429" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1429" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1430" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1430" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1430" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1430" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1430" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1431" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1431" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1431" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1431" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1431" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1432" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1432" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1432" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1432" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1432" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1433" s="10">
+        <v>42781</v>
+      </c>
+      <c r="C1433" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1433" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1433" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1433" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1438" s="21"/>
+      <c r="B1438" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1438" s="23"/>
+      <c r="D1438" s="21"/>
+      <c r="E1438" s="24"/>
+      <c r="F1438" s="25"/>
+    </row>
+    <row r="1439" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1439" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1439" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1439" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1439" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1439" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1439" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1440" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1440" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1440" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1440" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1440" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1440" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1441" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1441" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1441" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1441" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1441" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1441" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1442" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1442" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1442" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1442" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1442" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1442" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1443" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1443" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1443" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1443" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1443" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1443" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1444" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1444" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1444" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1444" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1444" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1444" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1445" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1445" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1445" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1445" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1445" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1445" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1446" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1446" s="10">
+        <v>42782</v>
+      </c>
+      <c r="C1446" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1446" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1446" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1446" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1450" s="21"/>
+      <c r="B1450" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1450" s="23"/>
+      <c r="D1450" s="21"/>
+      <c r="E1450" s="24"/>
+      <c r="F1450" s="25"/>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1451" s="10">
+        <v>42783</v>
+      </c>
+      <c r="C1451" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1451" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1451" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1451" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1452" s="10">
+        <v>42783</v>
+      </c>
+      <c r="C1452" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1452" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1452" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1452" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1453" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1453" s="10">
+        <v>42783</v>
+      </c>
+      <c r="C1453" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1453" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1453" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1453" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1454" s="10">
+        <v>42783</v>
+      </c>
+      <c r="C1454" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1454" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1454" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1454" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1458" s="21"/>
+      <c r="B1458" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1458" s="23"/>
+      <c r="D1458" s="21"/>
+      <c r="E1458" s="24"/>
+      <c r="F1458" s="25"/>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1459" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1459" s="31">
+        <v>42793</v>
+      </c>
+      <c r="C1459" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1459" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1459" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1459" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1460" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1460" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1460" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1460" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1460" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1460" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1461" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1461" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1461" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1461" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1461" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1462" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1462" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1462" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1462" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1462" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1462" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1463" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1463" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1463" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1463" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1463" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1463" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1464" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1464" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1464" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1464" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1464" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1464" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1465" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1465" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1465" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1465" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1465" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1465" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1466" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1466" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1466" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1466" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1466" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1466" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1467" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1467" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1467" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1467" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1467" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1467" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1468" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1468" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1468" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1468" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1468" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1468" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1469" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1469" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1469" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1469" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1469" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1469" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1470" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1470" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1470" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1470" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1470" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1470" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1471" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1471" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1471" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1471" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1471" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1471" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1472" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1472" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1472" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1472" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1472" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1472" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1473" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1473" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1473" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1473" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1473" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1473" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1474" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1474" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1474" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1474" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1474" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1474" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1475" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1475" s="10">
+        <v>42793</v>
+      </c>
+      <c r="C1475" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1475" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1475" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1475" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1480" s="21"/>
+      <c r="B1480" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1480" s="23"/>
+      <c r="D1480" s="21"/>
+      <c r="E1480" s="24"/>
+      <c r="F1480" s="25"/>
+    </row>
+    <row r="1481" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1481" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1481" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1481" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1481" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1481" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1481" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1482" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1482" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1482" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1482" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1482" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1482" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1483" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1483" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1483" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1483" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1483" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1483" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1484" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1484" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1484" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1484" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1484" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1484" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1485" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1485" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1485" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1485" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1485" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1485" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1486" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1486" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1486" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1486" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1486" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1486" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1487" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1487" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1487" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1487" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1487" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1487" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1488" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1488" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1488" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1488" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1488" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1488" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1489" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1489" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1489" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1489" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1489" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1489" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1490" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1490" s="10">
+        <v>42794</v>
+      </c>
+      <c r="C1490" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1490" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1490" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1490" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1495" s="21"/>
+      <c r="B1495" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1495" s="23"/>
+      <c r="D1495" s="21"/>
+      <c r="E1495" s="24"/>
+      <c r="F1495" s="25"/>
+    </row>
+    <row r="1496" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1496" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1496" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1496" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1496" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1496" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1496" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1497" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1497" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1497" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1497" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1497" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1497" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1498" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1498" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1498" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1498" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1498" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1498" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1499" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1499" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1499" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1499" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1499" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1499" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1500" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1500" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1500" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1500" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1500" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1500" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1501" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1501" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1501" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1501" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1501" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1501" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1502" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1502" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1502" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1502" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1502" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1502" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1503" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1503" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1503" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1503" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1503" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1503" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1504" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1504" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1504" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1504" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1504" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1504" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1505" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1505" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1505" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1505" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1505" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1505" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1506" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1506" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1506" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1506" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1506" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1506" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1507" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1507" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1507" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1507" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1507" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1507" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1508" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1508" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1508" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1508" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1508" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1508" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1509" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1509" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1509" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1509" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1509" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1509" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1510" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1510" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1510" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1510" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1510" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1510" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1511" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1511" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1511" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1511" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1511" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1511" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1512" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1512" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1512" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1512" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1512" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1512" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1513" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1513" s="10">
+        <v>42795</v>
+      </c>
+      <c r="C1513" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1513" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1513" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1513" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1517" s="21"/>
+      <c r="B1517" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1517" s="23"/>
+      <c r="D1517" s="21"/>
+      <c r="E1517" s="24"/>
+      <c r="F1517" s="25"/>
+    </row>
+    <row r="1518" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1518" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1518" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1518" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1518" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1518" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1518" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1519" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1519" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1519" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1519" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1519" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1519" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1520" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1520" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1520" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1520" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1520" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1520" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1521" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1521" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1521" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1521" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1521" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1521" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1522" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1522" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1522" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1522" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1522" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1522" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1523" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1523" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1523" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1523" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1523" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1523" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1524" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1524" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1524" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1524" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1524" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1524" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1525" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1525" s="10">
+        <v>42796</v>
+      </c>
+      <c r="C1525" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1525" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1525" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1525" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1529" s="21"/>
+      <c r="B1529" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1529" s="23"/>
+      <c r="D1529" s="21"/>
+      <c r="E1529" s="24"/>
+      <c r="F1529" s="25"/>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1530" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1530" s="10">
+        <v>42797</v>
+      </c>
+      <c r="C1530" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1530" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1530" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1530" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1531" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1531" s="10">
+        <v>42797</v>
+      </c>
+      <c r="C1531" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1531" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1531" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1531" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1532" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1532" s="10">
+        <v>42797</v>
+      </c>
+      <c r="C1532" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1532" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1532" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1532" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1536" s="21"/>
+      <c r="B1536" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1536" s="23"/>
+      <c r="D1536" s="21"/>
+      <c r="E1536" s="24"/>
+      <c r="F1536" s="25"/>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1537" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1537" s="31">
+        <v>42800</v>
+      </c>
+      <c r="C1537" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1537" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1537" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1537" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1538" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1538" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1538" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1538" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1538" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1538" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1539" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1539" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1539" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1539" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1539" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1539" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1540" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1540" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1540" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1540" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1540" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1540" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1541" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1541" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1541" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1541" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1541" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1541" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1542" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1542" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1542" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1542" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1542" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1542" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1543" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1543" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1543" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1543" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1543" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1543" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1544" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1544" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1544" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1544" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1544" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1544" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1545" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1545" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1545" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1545" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1545" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1545" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1546" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1546" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1546" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1546" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1546" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1546" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1547" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1547" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1547" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1547" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1547" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1547" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1548" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1548" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1548" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1548" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1548" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1548" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1549" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1549" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1549" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1549" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1549" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1549" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1550" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1550" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1550" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1550" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1550" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1550" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1551" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1551" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1551" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1551" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1551" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1551" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1552" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1552" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1552" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1552" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1552" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1552" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1553" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1553" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C1553" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1553" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1553" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1553" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="354">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1640,10 +1640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1553"/>
+  <dimension ref="A1:F1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1547" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1557" sqref="F1557"/>
+    <sheetView tabSelected="1" topLeftCell="A1550" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1570" sqref="F1570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24127,6 +24127,176 @@
       </c>
       <c r="F1553" s="19" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1558" s="21"/>
+      <c r="B1558" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1558" s="23"/>
+      <c r="D1558" s="21"/>
+      <c r="E1558" s="24"/>
+      <c r="F1558" s="25"/>
+    </row>
+    <row r="1559" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1559" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1559" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1559" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1559" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1559" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1559" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1560" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1560" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1560" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1560" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1560" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1560" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1561" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1561" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1561" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1561" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1561" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1561" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1562" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1562" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1562" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1562" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1562" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1562" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1563" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1563" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1563" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1563" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1563" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1563" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1564" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1564" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1564" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1564" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1564" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1564" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1565" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1565" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1565" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1565" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1565" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1565" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1566" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1566" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C1566" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1566" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1566" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1566" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6126" uniqueCount="368">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1107,6 +1107,48 @@
   </si>
   <si>
     <t>Pick up roll in PC and projector carts. Pick up all matts and cables and return all equipment to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. Key for room is in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic, clip, stand and cable and return to Bethune 201 storeroom. Pick up all matts.</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker and cart and all matts and AC cords. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>VERY IMPORTANT - PICK UP WIRELESS NECK MICROPHONE - May be on PC cart, PA cart or podium. EXPENSIVE MIC - MUST BE PICKED UP IN ADDITION TO Lecturn Mic. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, cable and stand.</t>
+  </si>
+  <si>
+    <t>PICK UP SKYPE CAMERA AND TRIPOPD WITH USB EXTENSION - RETURN TO BETHUNE 201 STOREROOM.</t>
+  </si>
+  <si>
+    <t>Make sure keyboard goes back to drawer.</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Make sure PC and touchscreen logged off - ELECRICAL OUTAGE WED MORNING FIRST THING.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Help Ron pick up large screen TV and roll in PC and projector. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Help Ron pick up 1 Lecturn, 1 Audience and 1 neck mic and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Help Ron pick up Large PA system with 2 speakers and amplifier and mixer cart and return to Bethune 201 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1640,10 +1682,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1566"/>
+  <dimension ref="A1:F1705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1550" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1570" sqref="F1570"/>
+    <sheetView tabSelected="1" topLeftCell="A1685" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1708" sqref="F1708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23910,134 +23952,124 @@
       </c>
     </row>
     <row r="1543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1543" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1543" s="10">
+      <c r="A1543" s="21"/>
+      <c r="B1543" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1543" s="23"/>
+      <c r="D1543" s="21"/>
+      <c r="E1543" s="24"/>
+      <c r="F1543" s="25"/>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1544" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1544" s="31">
         <v>42800</v>
       </c>
-      <c r="C1543" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1543" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1543" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1543" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1544" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1544" s="10">
-        <v>42800</v>
-      </c>
       <c r="C1544" s="12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D1544" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1544" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1544" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E1544" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1544" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1545" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B1545" s="10">
         <v>42800</v>
       </c>
       <c r="C1545" s="12" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D1545" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1545" s="11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F1545" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1546" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B1546" s="10">
         <v>42800</v>
       </c>
       <c r="C1546" s="12" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="D1546" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1546" s="11" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F1546" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1547" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B1547" s="10">
         <v>42800</v>
       </c>
       <c r="C1547" s="12" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="D1547" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1547" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1547" s="19" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1548" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B1548" s="10">
         <v>42800</v>
       </c>
       <c r="C1548" s="12" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D1548" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E1548" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F1548" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A1549" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B1549" s="10">
         <v>42800</v>
       </c>
       <c r="C1549" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1549" s="9" t="s">
         <v>50</v>
@@ -24046,7 +24078,7 @@
         <v>136</v>
       </c>
       <c r="F1549" s="19" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1550" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -24296,6 +24328,2186 @@
         <v>136</v>
       </c>
       <c r="F1566" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1570" s="21"/>
+      <c r="B1570" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1570" s="23"/>
+      <c r="D1570" s="21"/>
+      <c r="E1570" s="24"/>
+      <c r="F1570" s="25"/>
+    </row>
+    <row r="1571" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1571" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1571" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1571" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1571" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1571" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1571" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1572" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1572" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1572" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1572" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1572" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1572" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1573" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1573" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1573" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1573" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1573" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1573" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1574" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1574" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1574" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1574" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1574" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1574" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1575" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1575" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1575" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1575" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1575" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1575" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1576" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1576" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1576" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1576" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1576" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1576" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1577" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1577" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1577" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1577" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1577" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1577" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1578" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1578" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1578" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1578" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1578" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1578" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1579" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1579" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1579" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1579" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1579" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1579" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1580" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1580" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1580" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1580" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1580" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1580" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1581" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1581" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1581" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1581" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1581" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1581" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1582" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1582" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1582" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1582" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1582" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1582" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1583" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1583" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1583" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1583" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1583" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1583" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1584" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1584" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1584" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1584" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1584" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1584" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1585" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1585" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1585" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1585" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1585" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1585" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1586" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1586" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C1586" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1586" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1586" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1586" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1590" s="21"/>
+      <c r="B1590" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1590" s="23"/>
+      <c r="D1590" s="21"/>
+      <c r="E1590" s="24"/>
+      <c r="F1590" s="25"/>
+    </row>
+    <row r="1591" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1591" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1591" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1591" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1591" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1591" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1591" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1592" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1592" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1592" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1592" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1592" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1592" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1593" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1593" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1593" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1593" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1593" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1593" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1594" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1594" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1594" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1594" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1594" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1594" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1595" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1595" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1595" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1595" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1595" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1595" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1596" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1596" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1596" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1596" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1596" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1596" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1597" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1597" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1597" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1597" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1597" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1597" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1598" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1598" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1598" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1598" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1598" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1598" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1599" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1599" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1599" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1599" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1599" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1599" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1600" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1600" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1600" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1600" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1600" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1600" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1601" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1601" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1601" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1601" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1601" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1601" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1602" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1602" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1602" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1602" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1602" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1602" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1603" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1603" s="10">
+        <v>42803</v>
+      </c>
+      <c r="C1603" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1603" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1603" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1603" s="34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1607" s="21"/>
+      <c r="B1607" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1607" s="23"/>
+      <c r="D1607" s="21"/>
+      <c r="E1607" s="24"/>
+      <c r="F1607" s="25"/>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1608" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1608" s="10">
+        <v>42804</v>
+      </c>
+      <c r="C1608" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1608" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1608" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1608" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1609" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1609" s="10">
+        <v>42804</v>
+      </c>
+      <c r="C1609" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1609" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1609" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1609" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1610" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1610" s="10">
+        <v>42804</v>
+      </c>
+      <c r="C1610" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1610" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1610" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1610" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1614" s="21"/>
+      <c r="B1614" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1614" s="23"/>
+      <c r="D1614" s="21"/>
+      <c r="E1614" s="24"/>
+      <c r="F1614" s="25"/>
+    </row>
+    <row r="1615" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1615" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1615" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1615" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1615" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1615" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1615" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1616" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1616" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1616" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1616" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1616" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1616" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1617" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1617" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1617" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1617" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1617" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1617" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1618" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1618" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1618" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1618" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1618" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1618" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1619" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1619" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1619" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1619" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1619" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1619" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1620" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1620" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1620" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1620" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1620" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1620" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1621" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1621" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1621" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1621" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1621" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1621" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1622" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1622" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1622" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1622" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1622" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1622" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1623" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1623" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1623" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1623" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1623" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1623" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1624" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1624" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1624" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1624" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1624" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1624" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1625" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1625" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1625" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1625" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1625" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1625" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1626" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1626" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1626" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1626" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1626" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1626" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1627" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1627" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1627" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1627" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1627" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1627" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1628" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1628" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1628" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1628" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1628" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1628" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1629" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1629" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1629" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1629" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1629" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1629" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1630" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1630" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1630" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1630" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1630" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1630" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1631" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1631" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1631" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1631" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1631" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1631" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1632" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1632" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1632" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1632" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1632" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1632" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1633" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1633" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1633" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1633" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1633" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1633" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1634" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1634" s="10">
+        <v>42807</v>
+      </c>
+      <c r="C1634" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1634" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1634" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1634" s="34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1638" s="21"/>
+      <c r="B1638" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1638" s="23"/>
+      <c r="D1638" s="21"/>
+      <c r="E1638" s="24"/>
+      <c r="F1638" s="25"/>
+    </row>
+    <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1639" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1639" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1639" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1639" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1639" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1639" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1640" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1640" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1640" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1640" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1640" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1640" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1641" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1641" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1641" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1641" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1641" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1641" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1642" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1642" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1642" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1642" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1642" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1642" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1643" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1643" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1643" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1643" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1643" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1643" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1644" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1644" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1644" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1644" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1644" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1644" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1645" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1645" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1645" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1645" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1645" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1645" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1646" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1646" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1646" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1646" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1646" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1646" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1647" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1647" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1647" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1647" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1647" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1647" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1648" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1648" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1648" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1648" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1648" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1648" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1649" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1649" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1649" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1649" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1649" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1649" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1650" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1650" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1650" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1650" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1650" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1650" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1651" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1651" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1651" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1651" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1651" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1651" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1652" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1652" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1652" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1652" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1652" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1652" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1653" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1653" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1653" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1653" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1653" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1653" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1654" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1654" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1654" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1654" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1654" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1654" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1655" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1655" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1655" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1655" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1655" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1655" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1656" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1656" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1656" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1656" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1656" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1657" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1657" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1657" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1657" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1657" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1657" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1658" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1658" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1658" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1658" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1658" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1658" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1659" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1659" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1659" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1659" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1659" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1659" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1660" s="10">
+        <v>42808</v>
+      </c>
+      <c r="C1660" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1660" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1660" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1660" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1665" s="21"/>
+      <c r="B1665" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1665" s="23"/>
+      <c r="D1665" s="21"/>
+      <c r="E1665" s="24"/>
+      <c r="F1665" s="25"/>
+    </row>
+    <row r="1666" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1666" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1666" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1666" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1666" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1666" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1666" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1667" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1667" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1667" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1667" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1667" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1667" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1668" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1668" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1668" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1668" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1668" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1668" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1669" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1669" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1669" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1669" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1669" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1669" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1670" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1670" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1670" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1670" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1670" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1671" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1671" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1671" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1671" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1671" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1672" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1672" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1672" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1672" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1672" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1672" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1673" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1673" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1673" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1673" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1673" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1673" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1674" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1674" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1674" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1674" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1674" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1675" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1675" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1675" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1675" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1675" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1675" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1676" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1676" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1676" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1676" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1676" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1677" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1677" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1677" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1677" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1677" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1678" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1678" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1678" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1678" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1678" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1679" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1679" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1679" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1679" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1679" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1680" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1680" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1680" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1680" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1680" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1681" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1681" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1681" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1681" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1681" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1682" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1682" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1682" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1682" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1682" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1682" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1683" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1683" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1683" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1683" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1683" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1684" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1684" s="10">
+        <v>42809</v>
+      </c>
+      <c r="C1684" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1684" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1684" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1684" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1689" s="21"/>
+      <c r="B1689" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1689" s="23"/>
+      <c r="D1689" s="21"/>
+      <c r="E1689" s="24"/>
+      <c r="F1689" s="25"/>
+    </row>
+    <row r="1690" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1690" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1690" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1690" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1690" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1690" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1690" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1691" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1691" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1691" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1691" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1691" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1691" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1692" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1692" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1692" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1692" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1692" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1692" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1693" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1693" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1693" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1693" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1693" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1693" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1694" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1694" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1694" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1694" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1694" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1694" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1695" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1695" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1695" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1695" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1695" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1695" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1696" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1696" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1696" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1696" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1696" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1696" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1697" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1697" s="10">
+        <v>42810</v>
+      </c>
+      <c r="C1697" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1697" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1697" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1697" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1701" s="21"/>
+      <c r="B1701" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1701" s="23"/>
+      <c r="D1701" s="21"/>
+      <c r="E1701" s="24"/>
+      <c r="F1701" s="25"/>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1702" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1702" s="10">
+        <v>42811</v>
+      </c>
+      <c r="C1702" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1702" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1702" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1702" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1703" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1703" s="10">
+        <v>42811</v>
+      </c>
+      <c r="C1703" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1703" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1703" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1703" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1704" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1704" s="10">
+        <v>42811</v>
+      </c>
+      <c r="C1704" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1704" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1704" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1704" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1705" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1705" s="10">
+        <v>42811</v>
+      </c>
+      <c r="C1705" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1705" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1705" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1705" s="19" t="s">
         <v>240</v>
       </c>
     </row>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6126" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="404">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1149,6 +1149,171 @@
   </si>
   <si>
     <t>Help Ron pick up Large PA system with 2 speakers and amplifier and mixer cart and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Be on time - we do not have a key for this room.</t>
+  </si>
+  <si>
+    <t>Pick up Flat screen TV with PC. Return all matts and extension cords and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up Skype camera, USB extender and tripod. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BRING SKYPE CAMERA AND TRIPOD TO FOUNDERS 164 STOREROOM - NEEDED FOR 5:00 PM.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator needed for mics and PPT PC presentations from 4 - 9:00 pm. Meet Jeannine in Stong Dining Hall at 4:00 pm for instructions. </t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart - return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in Projector cart - return to Bethune 201 storeroo.</t>
+  </si>
+  <si>
+    <t>Pick up 2 large speakers and amplifier and 2 speaker cables.</t>
+  </si>
+  <si>
+    <t>Pick up large screen TV at back of room - return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up cart with mixer and wireless mic receivers. Pick up 2 wireless microphone (one on lecturn and on on audience stand). Pick up all matts, cables, mic stands. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALSO PICK UP WIRELESS NECK MIC AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIRELESS MOUSE CLICKER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Return all to Bethune 201 storeroom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pick up portable screen - put in cubby room between Dining Hall and Stong MDR. (See Jeannine)</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker on cart. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, cable, mic stand and all matts and return to Bethune 201 storeroom. We have a key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>A group has LSB 103 booked 4-10:30pm on the room report. Don't know if they are using equipment or not but if they are, can we demo the log off procedure so that the projectors don't stay on all weekend.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart and all matts and cables. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in projector cart with all matts and cables. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic, clip, stand and cable. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker and cart and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>LEAVE PORTABLE SCREEN IN ROOM. Lock room - we have a key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Meet Jeannine to assist with set up.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, cable. Stand and all matts. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up 2 large speakers, 2 long grey speaker cables, amplifier and cart. Pick up all matts and AC cords. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC cart and all matts and ac cords. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in Projector cart and all matts and ac cords. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up large 8 foot screen and return to cubbyhole cabinet room between Stong Dining Hall and Stong MDR.</t>
+  </si>
+  <si>
+    <t>Clients will be mingling and still in room at 8:30 pm but they said we can pick up equipment if we do so quietly as they will be done with the equipment.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, stand and cable and return to CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat screen with PC in room already - just make sure client okay and tell client to lock in room when done as we are picking equipment up tomorrow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE SURE DOOR IS LOCKED - WE ARE LOCKING IN FLAT SCREEN IN ROOM TILL THURSDAY. </t>
+  </si>
+  <si>
+    <t>Turn off PC and Projector (projector remote control is in room). Leave equipment in room. Lock room with keys - room keys in CB 121A storeroom on Bethune classroom keys.</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera, tripod and USB extension. Return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Flat Screen TV and all matts and AC cords and return to Bethune 201 storeroom.</t>
+  </si>
+  <si>
+    <t>Turn off PC and TV - make sure keyboard goes back to cabinet drawer. Lock room. We have a key for room in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Projector remote on PC cart. LEAVE EQUIPMENT IN ROOM. Lock door. Key for room on Bethune classroom keys in CB 121A storeroom.</t>
+  </si>
+  <si>
+    <t>Turn off flat screen TV. LEAVE EQUIPMENT IN ROOM. Make sure door is locked. We do not have a key for this room.</t>
+  </si>
+  <si>
+    <t>Make sure neck mic goes back into drawer and log off touchscreen.</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1705"/>
+  <dimension ref="A1:F1961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1685" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1708" sqref="F1708"/>
+    <sheetView tabSelected="1" topLeftCell="A1938" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1964" sqref="F1964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26509,6 +26674,3866 @@
       </c>
       <c r="F1705" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1710" s="21"/>
+      <c r="B1710" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1710" s="23"/>
+      <c r="D1710" s="21"/>
+      <c r="E1710" s="24"/>
+      <c r="F1710" s="25"/>
+    </row>
+    <row r="1711" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1711" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1711" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1711" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1711" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1711" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1711" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1712" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1712" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1712" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1712" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1712" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1713" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1713" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1713" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1713" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1713" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1713" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1714" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1714" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1714" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1714" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1714" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1715" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1715" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1715" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1715" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1715" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1715" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1716" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1716" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1716" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1716" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1716" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1717" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1717" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1717" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1717" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1717" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1717" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1718" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1718" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1718" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1718" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1718" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1718" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1719" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1719" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1719" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1719" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1719" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1719" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1720" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1720" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1720" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1720" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1720" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1720" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1721" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1721" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1721" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1721" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1721" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1721" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1722" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1722" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1722" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1722" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1722" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1722" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1723" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1723" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1723" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1723" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1723" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1723" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1724" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1724" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1724" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1724" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1724" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1724" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1725" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1725" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1725" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1725" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1725" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1725" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1726" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1726" s="10">
+        <v>42814</v>
+      </c>
+      <c r="C1726" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1726" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1726" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1726" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731" s="21"/>
+      <c r="B1731" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1731" s="23"/>
+      <c r="D1731" s="21"/>
+      <c r="E1731" s="24"/>
+      <c r="F1731" s="25"/>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1732" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1732" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1732" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1732" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1732" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1733" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1733" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1733" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1733" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1733" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1734" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1734" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1734" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1734" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1734" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1734" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1735" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1735" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1735" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1735" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1735" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1735" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1736" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1736" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1736" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1736" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1736" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1737" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1737" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1737" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1737" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1737" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1738" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1738" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1738" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1738" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1738" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1739" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1739" s="10">
+        <v>42815</v>
+      </c>
+      <c r="C1739" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1739" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1739" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1739" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744" s="21"/>
+      <c r="B1744" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1744" s="23"/>
+      <c r="D1744" s="21"/>
+      <c r="E1744" s="24"/>
+      <c r="F1744" s="25"/>
+    </row>
+    <row r="1745" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1745" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1745" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1745" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1745" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1745" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1745" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1746" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1746" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1746" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1746" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1746" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1746" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1747" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1747" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1747" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1747" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1747" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1747" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1748" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1748" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1748" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1748" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1748" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1748" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1749" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1749" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1749" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1749" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1749" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1749" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1750" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1750" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1750" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1750" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1750" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1750" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1751" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1751" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1751" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1751" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1751" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1751" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1752" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1752" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1752" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1752" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1752" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1753" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1753" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1753" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1753" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1753" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1754" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1754" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1754" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1754" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1754" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1755" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1755" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1755" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1755" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1755" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1756" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1756" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1756" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1756" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1756" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1757" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1757" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1757" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1757" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1757" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1757" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1758" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1758" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1758" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1758" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1758" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1758" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1759" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1759" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1759" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1759" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1759" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1759" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1760" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1760" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1760" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1760" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1760" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1760" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1761" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1761" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1761" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1761" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1761" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1761" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1762" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1762" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1762" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1762" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1762" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1762" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1763" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C1763" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1763" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1763" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1763" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767" s="21"/>
+      <c r="B1767" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1767" s="23"/>
+      <c r="D1767" s="21"/>
+      <c r="E1767" s="24"/>
+      <c r="F1767" s="25"/>
+    </row>
+    <row r="1768" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1768" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1768" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1768" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1768" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1768" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1768" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1769" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1769" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1769" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1769" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1769" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1770" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1770" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1770" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1770" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1770" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1771" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1771" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1771" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1771" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1771" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1771" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1772" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1772" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1772" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1772" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1772" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1773" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1773" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1773" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1773" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1773" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1774" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1774" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1774" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1774" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1774" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1775" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1775" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1775" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1775" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1775" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1776" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1776" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1776" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1776" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1776" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1776" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1777" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1777" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1777" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1777" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1777" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1778" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1778" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1778" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1778" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1778" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1779" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1779" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1779" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1779" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1779" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1780" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1780" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1780" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1780" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1780" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1781" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1781" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1781" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1781" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1781" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1781" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1782" s="10">
+        <v>42817</v>
+      </c>
+      <c r="C1782" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1782" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1782" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1782" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1786" s="21"/>
+      <c r="B1786" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1786" s="23"/>
+      <c r="D1786" s="21"/>
+      <c r="E1786" s="24"/>
+      <c r="F1786" s="25"/>
+    </row>
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1787" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1787" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1787" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1787" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1787" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1787" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1788" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1788" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1788" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1788" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1788" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1788" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1789" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1789" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1789" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1789" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1789" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1790" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1790" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1790" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1790" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1790" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1790" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1791" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1791" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1791" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1791" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1791" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1791" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1792" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1792" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1792" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1792" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1792" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1792" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1793" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1793" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1793" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1793" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1793" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1793" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1794" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1794" s="10">
+        <v>42818</v>
+      </c>
+      <c r="C1794" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1794" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1794" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1794" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1799" s="21"/>
+      <c r="B1799" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1799" s="23"/>
+      <c r="D1799" s="21"/>
+      <c r="E1799" s="24"/>
+      <c r="F1799" s="25"/>
+    </row>
+    <row r="1800" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1800" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1800" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1800" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1800" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1800" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1800" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1801" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1801" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1801" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1801" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1801" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1801" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1802" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1802" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1802" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1802" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1802" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1802" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1803" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1803" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1803" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1803" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1803" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1803" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1804" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1804" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1804" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1804" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1804" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1804" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1805" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1805" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1805" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1805" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1805" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1805" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1806" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1806" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1806" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1806" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1806" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1806" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1807" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1807" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1807" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1807" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1807" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1807" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1808" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1808" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1808" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1808" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1808" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1808" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1809" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1809" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1809" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1809" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1809" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1809" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1810" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1810" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1810" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1810" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1810" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1810" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1811" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1811" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1811" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1811" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1811" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1811" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1812" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1812" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1812" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1812" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1812" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1812" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1813" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1813" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1813" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1813" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1813" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1813" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1814" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1814" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1814" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1814" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1814" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1814" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1815" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1815" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1815" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1815" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1815" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1815" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1816" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1816" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1816" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1816" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1816" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1816" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1817" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1817" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1817" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1817" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1817" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1817" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1818" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1818" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C1818" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1818" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1818" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1818" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1822" s="21"/>
+      <c r="B1822" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1822" s="23"/>
+      <c r="D1822" s="21"/>
+      <c r="E1822" s="24"/>
+      <c r="F1822" s="25"/>
+    </row>
+    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1823" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1823" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1823" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1823" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1823" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1823" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1824" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1824" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1824" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1824" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1824" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1824" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1825" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1825" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1825" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1825" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1825" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1826" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1826" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1826" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1826" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1826" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1826" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1827" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1827" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1827" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1827" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1827" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1827" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1828" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1828" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1828" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1828" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1828" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1828" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1829" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1829" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1829" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1829" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1829" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1829" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1830" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1830" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1830" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1830" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1830" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1830" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1831" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1831" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1831" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1831" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1831" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1831" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1832" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1832" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1832" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1832" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1832" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1832" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1833" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1833" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1833" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1833" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1833" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1833" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1834" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1834" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C1834" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1834" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1834" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1834" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1839" s="21"/>
+      <c r="B1839" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1839" s="23"/>
+      <c r="D1839" s="21"/>
+      <c r="E1839" s="24"/>
+      <c r="F1839" s="25"/>
+    </row>
+    <row r="1840" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1840" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1840" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1840" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1840" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1840" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1840" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1841" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1841" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1841" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1841" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1841" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1841" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1842" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1842" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1842" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1842" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1842" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1842" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1843" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1843" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1843" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1843" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1843" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1843" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1844" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1844" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1844" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1844" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1844" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1844" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1845" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1845" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1845" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1845" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1845" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1845" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1846" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1846" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1846" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1846" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1846" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1846" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1847" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1847" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1847" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1847" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1847" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1847" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1848" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1848" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1848" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1848" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1848" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1848" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1849" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1849" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1849" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1849" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1849" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1849" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1850" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1850" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1850" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1850" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1850" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1850" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1851" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1851" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1851" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1851" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1851" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1851" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1852" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1852" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1852" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1852" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1852" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1852" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1853" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1853" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1853" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1853" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1853" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1854" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1854" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1854" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1854" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1854" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1854" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1855" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1855" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1855" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1855" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1855" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1855" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1856" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1856" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1856" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1856" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1856" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1856" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1857" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1857" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1857" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1857" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1857" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1857" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1858" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1858" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1858" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1858" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1858" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1858" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1859" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1859" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1859" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1859" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1859" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1859" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1860" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1860" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1860" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1860" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1860" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1861" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1861" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1861" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1861" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1861" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1861" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1862" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1862" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1862" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1862" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1862" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1862" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1863" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1863" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1863" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1863" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1863" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1863" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1864" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1864" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1864" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1864" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1864" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1864" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1865" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1865" s="10">
+        <v>42823</v>
+      </c>
+      <c r="C1865" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1865" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1865" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1865" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1869" s="21"/>
+      <c r="B1869" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1869" s="23"/>
+      <c r="D1869" s="21"/>
+      <c r="E1869" s="24"/>
+      <c r="F1869" s="25"/>
+    </row>
+    <row r="1870" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1870" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1870" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1870" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1870" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1870" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1870" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1871" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1871" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1871" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1871" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1871" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1871" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1872" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1872" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1872" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1872" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1872" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1872" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1873" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1873" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1873" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1873" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1873" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1873" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1874" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1874" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1874" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1874" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1874" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1874" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1875" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1875" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1875" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1875" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1875" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1875" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1876" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1876" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1876" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1876" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1876" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1876" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1877" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1877" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C1877" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1877" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1877" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1877" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1881" s="21"/>
+      <c r="B1881" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1881" s="23"/>
+      <c r="D1881" s="21"/>
+      <c r="E1881" s="24"/>
+      <c r="F1881" s="25"/>
+    </row>
+    <row r="1882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1882" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1882" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1882" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1882" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1882" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1882" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1883" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1883" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1883" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1883" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1883" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1883" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1884" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1884" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1884" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1884" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1884" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1884" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1885" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1885" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1885" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1885" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1885" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1885" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1886" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1886" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1886" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1886" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1886" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1886" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1887" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1887" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1887" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1887" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1887" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1887" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1888" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1888" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1888" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1888" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1888" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1888" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1889" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1889" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C1889" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1889" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1889" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1889" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1893" s="21"/>
+      <c r="B1893" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1893" s="23"/>
+      <c r="D1893" s="21"/>
+      <c r="E1893" s="24"/>
+      <c r="F1893" s="25"/>
+    </row>
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1894" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1894" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1894" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1894" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1894" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1894" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1895" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1895" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1895" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1895" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1895" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1895" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1896" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1896" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1896" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1896" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1896" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1896" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1897" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1897" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1897" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1897" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1897" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1897" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1898" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1898" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1898" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1898" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1898" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1898" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1899" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1899" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1899" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1899" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1899" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1899" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1900" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1900" s="10">
+        <v>42828</v>
+      </c>
+      <c r="C1900" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1900" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1900" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1900" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1905" s="21"/>
+      <c r="B1905" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1905" s="23"/>
+      <c r="D1905" s="21"/>
+      <c r="E1905" s="24"/>
+      <c r="F1905" s="25"/>
+    </row>
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1906" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1906" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1906" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1906" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1906" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1906" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1907" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1907" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1907" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1907" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1907" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1907" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1908" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1908" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1908" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1908" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1908" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1908" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1909" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1909" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1909" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1909" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1909" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1909" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1910" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1910" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1910" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1910" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1910" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1910" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1911" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1911" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1911" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1911" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1911" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1911" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1912" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1912" s="10">
+        <v>42829</v>
+      </c>
+      <c r="C1912" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1912" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1912" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1912" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1917" s="21"/>
+      <c r="B1917" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1917" s="23"/>
+      <c r="D1917" s="21"/>
+      <c r="E1917" s="24"/>
+      <c r="F1917" s="25"/>
+    </row>
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1918" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1918" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1918" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1918" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1918" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1918" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1919" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1919" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1919" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1919" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1919" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1919" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1920" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1920" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1920" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1920" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1920" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1920" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1921" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1921" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1921" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1921" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1921" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1921" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1922" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1922" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1922" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1922" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1922" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1923" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1923" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1923" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1923" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1923" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1923" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1924" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1924" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1924" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1924" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1924" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1924" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1925" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1925" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1925" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1925" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1925" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1925" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1926" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1926" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1926" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1926" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1926" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1926" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1927" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1927" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1927" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1927" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1927" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1927" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1928" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1928" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1928" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1928" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1928" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1928" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1929" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1929" s="10">
+        <v>42830</v>
+      </c>
+      <c r="C1929" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1929" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1929" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1929" s="34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1933" s="21"/>
+      <c r="B1933" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1933" s="23"/>
+      <c r="D1933" s="21"/>
+      <c r="E1933" s="24"/>
+      <c r="F1933" s="25"/>
+    </row>
+    <row r="1934" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1934" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1934" s="10">
+        <v>42831</v>
+      </c>
+      <c r="C1934" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1934" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1934" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1934" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1935" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1935" s="10">
+        <v>42831</v>
+      </c>
+      <c r="C1935" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1935" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1935" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1935" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1936" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1936" s="10">
+        <v>42831</v>
+      </c>
+      <c r="C1936" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1936" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1936" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1936" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1940" s="21"/>
+      <c r="B1940" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1940" s="23"/>
+      <c r="D1940" s="21"/>
+      <c r="E1940" s="24"/>
+      <c r="F1940" s="25"/>
+    </row>
+    <row r="1941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1941" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1941" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1941" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1941" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1941" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1941" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1942" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1942" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1942" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1942" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1942" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1942" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1943" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1943" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1943" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1943" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1943" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1943" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1944" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1944" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1944" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1944" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1944" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1944" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1945" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1945" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1945" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1945" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1945" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1945" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1946" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1946" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1946" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1946" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1946" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1947" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1947" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1947" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1947" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1947" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1947" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1948" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1948" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1948" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1948" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1948" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1949" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1949" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1949" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1949" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1949" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1949" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1950" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1950" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1950" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1950" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1950" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1950" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1951" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1951" s="10">
+        <v>42832</v>
+      </c>
+      <c r="C1951" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1951" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1951" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1951" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1955" s="21"/>
+      <c r="B1955" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1955" s="23"/>
+      <c r="D1955" s="21"/>
+      <c r="E1955" s="24"/>
+      <c r="F1955" s="25"/>
+    </row>
+    <row r="1956" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1956" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1956" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1956" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1956" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1956" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1956" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1957" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1957" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1957" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1957" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1957" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1957" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1958" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1958" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1958" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1958" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1958" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1958" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1959" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1959" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1959" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1959" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1959" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1959" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1960" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1960" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1960" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1960" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1960" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1961" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1961" s="10">
+        <v>42835</v>
+      </c>
+      <c r="C1961" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1961" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1961" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1961" s="19" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="404">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1847,10 +1847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1961"/>
+  <dimension ref="A1:F1973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1938" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1964" sqref="F1964"/>
+    <sheetView tabSelected="1" topLeftCell="A1955" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1978" sqref="F1978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30534,6 +30534,164 @@
       </c>
       <c r="F1961" s="19" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1965" s="21"/>
+      <c r="B1965" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1965" s="23"/>
+      <c r="D1965" s="21"/>
+      <c r="E1965" s="24"/>
+      <c r="F1965" s="25"/>
+    </row>
+    <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1966" s="9"/>
+      <c r="B1966" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1966" s="32"/>
+      <c r="F1966" s="33"/>
+    </row>
+    <row r="1967" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1967" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1967" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1967" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1967" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1967" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1967" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1968" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1968" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1968" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1968" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1968" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1968" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1969" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1969" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1969" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1969" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1969" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1969" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1970" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1970" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1970" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1970" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1970" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1970" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1971" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1971" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1971" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1971" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1971" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1972" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1972" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1972" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1972" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1972" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1973" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1973" s="10">
+        <v>42837</v>
+      </c>
+      <c r="C1973" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1973" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1973" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1973" s="19" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Jeannine/Jeannine's log.xlsx
+++ b/CLASSOPS/Jeannine/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="404">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1847,10 +1847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1973"/>
+  <dimension ref="A1:F1979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1955" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1978" sqref="F1978"/>
+    <sheetView tabSelected="1" topLeftCell="A1964" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1983" sqref="F1983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30692,6 +30692,36 @@
       </c>
       <c r="F1973" s="19" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1978" s="21"/>
+      <c r="B1978" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1978" s="23"/>
+      <c r="D1978" s="21"/>
+      <c r="E1978" s="24"/>
+      <c r="F1978" s="25"/>
+    </row>
+    <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1979" s="10">
+        <v>42849</v>
+      </c>
+      <c r="C1979" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1979" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1979" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1979" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
